--- a/output/bombs_bets.xlsx
+++ b/output/bombs_bets.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="4" sheetId="4" r:id="rId4"/>
     <sheet name="5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -788,8 +788,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,17 +848,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -896,7 +901,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -930,6 +935,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -964,9 +970,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1139,14 +1146,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>27</v>
       </c>
@@ -1189,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1212,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>54</v>
       </c>
@@ -1235,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>55</v>
       </c>
@@ -1258,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>28</v>
       </c>
@@ -1281,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1304,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>29</v>
       </c>
@@ -1327,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>56</v>
       </c>
@@ -1350,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>57</v>
       </c>
@@ -1373,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1396,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30</v>
       </c>
@@ -1419,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>58</v>
       </c>
@@ -1442,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1465,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>31</v>
       </c>
@@ -1488,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>32</v>
       </c>
@@ -1511,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>59</v>
       </c>
@@ -1534,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -1557,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -1580,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>33</v>
       </c>
@@ -1603,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>61</v>
       </c>
@@ -1626,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>34</v>
       </c>
@@ -1649,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -1672,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>35</v>
       </c>
@@ -1695,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>8</v>
       </c>
@@ -1718,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>62</v>
       </c>
@@ -1741,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>9</v>
       </c>
@@ -1764,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>36</v>
       </c>
@@ -1787,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>63</v>
       </c>
@@ -1810,7 +1819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>64</v>
       </c>
@@ -1833,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>10</v>
       </c>
@@ -1856,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>37</v>
       </c>
@@ -1879,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -1902,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>65</v>
       </c>
@@ -1925,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>38</v>
       </c>
@@ -1948,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>39</v>
       </c>
@@ -1971,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>66</v>
       </c>
@@ -1994,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>12</v>
       </c>
@@ -2017,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40</v>
       </c>
@@ -2040,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>67</v>
       </c>
@@ -2063,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>13</v>
       </c>
@@ -2086,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>68</v>
       </c>
@@ -2109,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>14</v>
       </c>
@@ -2132,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2155,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2178,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>15</v>
       </c>
@@ -2201,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>69</v>
       </c>
@@ -2224,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>70</v>
       </c>
@@ -2247,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>16</v>
       </c>
@@ -2270,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43</v>
       </c>
@@ -2293,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>17</v>
       </c>
@@ -2316,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44</v>
       </c>
@@ -2339,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>71</v>
       </c>
@@ -2362,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>18</v>
       </c>
@@ -2385,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45</v>
       </c>
@@ -2408,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>72</v>
       </c>
@@ -2431,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>19</v>
       </c>
@@ -2454,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>46</v>
       </c>
@@ -2477,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>73</v>
       </c>
@@ -2500,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>74</v>
       </c>
@@ -2523,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>47</v>
       </c>
@@ -2546,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>20</v>
       </c>
@@ -2569,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>48</v>
       </c>
@@ -2592,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>75</v>
       </c>
@@ -2615,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>21</v>
       </c>
@@ -2623,22 +2632,22 @@
         <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D65" t="s">
         <v>76</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>22</v>
       </c>
@@ -2661,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>49</v>
       </c>
@@ -2684,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>76</v>
       </c>
@@ -2707,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>23</v>
       </c>
@@ -2730,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>50</v>
       </c>
@@ -2753,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>77</v>
       </c>
@@ -2776,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>78</v>
       </c>
@@ -2799,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>24</v>
       </c>
@@ -2822,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>51</v>
       </c>
@@ -2845,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>52</v>
       </c>
@@ -2868,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>25</v>
       </c>
@@ -2891,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>79</v>
       </c>
@@ -2914,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>53</v>
       </c>
@@ -2937,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>26</v>
       </c>
@@ -2960,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -2984,19 +2993,24 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G80">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3016,122 +3030,122 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -3154,58 +3168,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>96</v>
@@ -3223,219 +3237,219 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C19" t="s">
         <v>96</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D19" t="s">
         <v>118</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
         <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>72</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
       </c>
       <c r="C20" t="s">
         <v>97</v>
@@ -3453,18 +3467,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3476,18 +3490,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3499,15 +3513,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
         <v>119</v>
@@ -3522,225 +3536,225 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>10</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
         <v>97</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D32" t="s">
         <v>119</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1">
-        <v>65</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1">
-        <v>64</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
         <v>16</v>
       </c>
-      <c r="C26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1">
-        <v>49</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1">
-        <v>60</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1">
-        <v>48</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1">
-        <v>77</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1">
-        <v>56</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1">
-        <v>76</v>
-      </c>
-      <c r="B33" t="s">
-        <v>28</v>
-      </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3752,65 +3766,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
         <v>17</v>
       </c>
       <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
         <v>58</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>85</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1">
-        <v>21</v>
-      </c>
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" t="s">
-        <v>123</v>
-      </c>
       <c r="E36">
         <v>1</v>
       </c>
@@ -3821,53 +3835,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -3890,202 +3904,202 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>15</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B45" t="s">
         <v>21</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C45" t="s">
         <v>100</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D45" t="s">
         <v>118</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1">
-        <v>50</v>
-      </c>
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1">
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B46" t="s">
         <v>21</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C46" t="s">
         <v>102</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D46" t="s">
         <v>127</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1">
-        <v>19</v>
-      </c>
-      <c r="B43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1">
-        <v>67</v>
-      </c>
-      <c r="B44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1">
-        <v>4</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1">
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>69</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
         <v>22</v>
       </c>
-      <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" t="s">
-        <v>75</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1">
-        <v>30</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" t="s">
-        <v>117</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1">
-        <v>80</v>
-      </c>
-      <c r="B48" t="s">
-        <v>32</v>
-      </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -4097,18 +4111,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -4120,41 +4134,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D51" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -4166,12 +4180,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
         <v>107</v>
@@ -4189,41 +4203,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -4235,18 +4249,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -4258,18 +4272,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
         <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -4281,12 +4295,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
         <v>107</v>
@@ -4304,18 +4318,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D58" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -4327,41 +4341,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="D59" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4373,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>74</v>
       </c>
@@ -4396,110 +4410,110 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
+        <v>48</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>75</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>49</v>
+      </c>
+      <c r="B65" t="s">
         <v>28</v>
       </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" t="s">
-        <v>111</v>
-      </c>
-      <c r="D62" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="1">
-        <v>46</v>
-      </c>
-      <c r="B63" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63" t="s">
-        <v>127</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="1">
-        <v>35</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64" t="s">
-        <v>127</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="1">
-        <v>75</v>
-      </c>
-      <c r="B65" t="s">
-        <v>27</v>
-      </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="D65" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D66" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4511,41 +4525,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D67" t="s">
         <v>75</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D68" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4557,35 +4571,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="D69" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
         <v>34</v>
@@ -4603,133 +4617,133 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D71" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C72" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="D72" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" t="s">
+        <v>120</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" t="s">
+        <v>121</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>52</v>
       </c>
-      <c r="D73" t="s">
-        <v>85</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="1">
-        <v>45</v>
-      </c>
-      <c r="B74" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" t="s">
-        <v>114</v>
-      </c>
-      <c r="D74" t="s">
-        <v>133</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="1">
-        <v>13</v>
-      </c>
-      <c r="B75" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" t="s">
-        <v>114</v>
-      </c>
-      <c r="D75" t="s">
-        <v>133</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="1">
-        <v>5</v>
-      </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D76" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4741,41 +4755,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D77" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D78" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4787,43 +4801,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="D79" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G79">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4843,7 +4860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>50</v>
       </c>
@@ -4866,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>52</v>
       </c>
@@ -4889,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>70</v>
       </c>
@@ -4912,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>63</v>
       </c>
@@ -4935,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -4958,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>61</v>
       </c>
@@ -4981,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>71</v>
       </c>
@@ -5004,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>79</v>
       </c>
@@ -5027,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43</v>
       </c>
@@ -5050,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>26</v>
       </c>
@@ -5073,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>68</v>
       </c>
@@ -5096,7 +5113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>55</v>
       </c>
@@ -5119,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -5142,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -5165,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>72</v>
       </c>
@@ -5188,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>57</v>
       </c>
@@ -5211,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -5234,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -5257,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>41</v>
       </c>
@@ -5280,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>31</v>
       </c>
@@ -5303,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -5326,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>62</v>
       </c>
@@ -5349,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>14</v>
       </c>
@@ -5372,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>67</v>
       </c>
@@ -5395,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>13</v>
       </c>
@@ -5418,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>48</v>
       </c>
@@ -5441,7 +5458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>19</v>
       </c>
@@ -5464,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>9</v>
       </c>
@@ -5487,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -5510,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>11</v>
       </c>
@@ -5533,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>77</v>
       </c>
@@ -5556,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>58</v>
       </c>
@@ -5579,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>22</v>
       </c>
@@ -5602,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -5625,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40</v>
       </c>
@@ -5648,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>18</v>
       </c>
@@ -5671,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -5694,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -5717,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>24</v>
       </c>
@@ -5740,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>29</v>
       </c>
@@ -5763,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>75</v>
       </c>
@@ -5786,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>74</v>
       </c>
@@ -5809,7 +5826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>30</v>
       </c>
@@ -5832,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>28</v>
       </c>
@@ -5855,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>66</v>
       </c>
@@ -5878,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>80</v>
       </c>
@@ -5901,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>51</v>
       </c>
@@ -5924,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>7</v>
       </c>
@@ -5947,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>42</v>
       </c>
@@ -5970,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44</v>
       </c>
@@ -5993,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>54</v>
       </c>
@@ -6016,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>59</v>
       </c>
@@ -6039,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>47</v>
       </c>
@@ -6062,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>21</v>
       </c>
@@ -6085,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>46</v>
       </c>
@@ -6108,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>38</v>
       </c>
@@ -6131,7 +6148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>78</v>
       </c>
@@ -6154,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>10</v>
       </c>
@@ -6177,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>76</v>
       </c>
@@ -6200,7 +6217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>56</v>
       </c>
@@ -6223,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>20</v>
       </c>
@@ -6246,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>32</v>
       </c>
@@ -6269,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>53</v>
       </c>
@@ -6292,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>36</v>
       </c>
@@ -6315,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>23</v>
       </c>
@@ -6338,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>17</v>
       </c>
@@ -6361,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>60</v>
       </c>
@@ -6384,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -6407,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>34</v>
       </c>
@@ -6430,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>73</v>
       </c>
@@ -6453,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>27</v>
       </c>
@@ -6476,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>33</v>
       </c>
@@ -6499,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>37</v>
       </c>
@@ -6522,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>65</v>
       </c>
@@ -6545,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>25</v>
       </c>
@@ -6568,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>4</v>
       </c>
@@ -6591,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -6614,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>12</v>
       </c>
@@ -6637,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>49</v>
       </c>
@@ -6660,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45</v>
       </c>
@@ -6689,14 +6706,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6716,7 +6733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>50</v>
       </c>
@@ -6739,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -6762,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>31</v>
       </c>
@@ -6785,7 +6802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>83</v>
       </c>
@@ -6808,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>41</v>
       </c>
@@ -6831,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>65</v>
       </c>
@@ -6854,7 +6871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -6877,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>13</v>
       </c>
@@ -6900,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>84</v>
       </c>
@@ -6923,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>66</v>
       </c>
@@ -6946,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44</v>
       </c>
@@ -6969,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>76</v>
       </c>
@@ -6992,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>61</v>
       </c>
@@ -7015,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>33</v>
       </c>
@@ -7038,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -7061,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>21</v>
       </c>
@@ -7084,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>60</v>
       </c>
@@ -7107,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>68</v>
       </c>
@@ -7130,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>59</v>
       </c>
@@ -7153,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>48</v>
       </c>
@@ -7176,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>11</v>
       </c>
@@ -7199,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>51</v>
       </c>
@@ -7222,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7245,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>6</v>
       </c>
@@ -7268,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>37</v>
       </c>
@@ -7291,7 +7308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>75</v>
       </c>
@@ -7314,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>19</v>
       </c>
@@ -7337,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -7360,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42</v>
       </c>
@@ -7383,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>15</v>
       </c>
@@ -7406,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>63</v>
       </c>
@@ -7429,7 +7446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40</v>
       </c>
@@ -7452,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>12</v>
       </c>
@@ -7475,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>80</v>
       </c>
@@ -7498,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>81</v>
       </c>
@@ -7521,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>53</v>
       </c>
@@ -7544,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>72</v>
       </c>
@@ -7567,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>64</v>
       </c>
@@ -7590,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>62</v>
       </c>
@@ -7613,7 +7630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -7636,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>77</v>
       </c>
@@ -7659,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>29</v>
       </c>
@@ -7682,7 +7699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>34</v>
       </c>
@@ -7705,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>71</v>
       </c>
@@ -7728,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>26</v>
       </c>
@@ -7751,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>70</v>
       </c>
@@ -7774,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>73</v>
       </c>
@@ -7797,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>78</v>
       </c>
@@ -7820,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>32</v>
       </c>
@@ -7843,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43</v>
       </c>
@@ -7866,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>18</v>
       </c>
@@ -7889,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>35</v>
       </c>
@@ -7912,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>69</v>
       </c>
@@ -7935,7 +7952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>16</v>
       </c>
@@ -7958,7 +7975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>14</v>
       </c>
@@ -7981,7 +7998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>47</v>
       </c>
@@ -8004,7 +8021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>3</v>
       </c>
@@ -8027,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8050,7 +8067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>82</v>
       </c>
@@ -8073,7 +8090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>55</v>
       </c>
@@ -8096,7 +8113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>4</v>
       </c>
@@ -8119,7 +8136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>17</v>
       </c>
@@ -8142,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>24</v>
       </c>
@@ -8165,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>7</v>
       </c>
@@ -8188,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>67</v>
       </c>
@@ -8211,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>79</v>
       </c>
@@ -8234,7 +8251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -8257,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>54</v>
       </c>
@@ -8280,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>30</v>
       </c>
@@ -8303,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>20</v>
       </c>
@@ -8326,7 +8343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>38</v>
       </c>
@@ -8349,7 +8366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>52</v>
       </c>
@@ -8372,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>25</v>
       </c>
@@ -8395,7 +8412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>49</v>
       </c>
@@ -8418,7 +8435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>36</v>
       </c>
@@ -8441,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>46</v>
       </c>
@@ -8470,14 +8487,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8497,7 +8514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>14</v>
       </c>
@@ -8520,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>46</v>
       </c>
@@ -8543,7 +8560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>63</v>
       </c>
@@ -8566,7 +8583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>70</v>
       </c>
@@ -8589,7 +8606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -8612,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>78</v>
       </c>
@@ -8635,7 +8652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>77</v>
       </c>
@@ -8658,7 +8675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>59</v>
       </c>
@@ -8681,7 +8698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>33</v>
       </c>
@@ -8704,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -8727,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>79</v>
       </c>
@@ -8750,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>50</v>
       </c>
@@ -8773,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>38</v>
       </c>
@@ -8796,7 +8813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>60</v>
       </c>
@@ -8819,7 +8836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>37</v>
       </c>
@@ -8842,7 +8859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>36</v>
       </c>
@@ -8865,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>47</v>
       </c>
@@ -8888,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43</v>
       </c>
@@ -8911,7 +8928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>68</v>
       </c>
@@ -8934,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -8957,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45</v>
       </c>
@@ -8980,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>32</v>
       </c>
@@ -9003,7 +9020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -9026,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>27</v>
       </c>
@@ -9049,7 +9066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>9</v>
       </c>
@@ -9072,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>8</v>
       </c>
@@ -9095,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>4</v>
       </c>
@@ -9118,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>12</v>
       </c>
@@ -9141,7 +9158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>13</v>
       </c>
@@ -9164,7 +9181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42</v>
       </c>
@@ -9187,7 +9204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -9210,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>19</v>
       </c>
@@ -9233,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -9256,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>16</v>
       </c>
@@ -9279,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>11</v>
       </c>
@@ -9302,7 +9319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>72</v>
       </c>
@@ -9325,7 +9342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -9348,7 +9365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>76</v>
       </c>
@@ -9371,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>48</v>
       </c>
@@ -9394,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>28</v>
       </c>
@@ -9417,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>54</v>
       </c>
@@ -9440,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -9463,7 +9480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>65</v>
       </c>
@@ -9486,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>31</v>
       </c>
@@ -9509,7 +9526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>7</v>
       </c>
@@ -9532,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -9555,7 +9572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>51</v>
       </c>
@@ -9578,7 +9595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44</v>
       </c>
@@ -9601,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>35</v>
       </c>
@@ -9624,7 +9641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>22</v>
       </c>
@@ -9647,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>41</v>
       </c>
@@ -9670,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>75</v>
       </c>
@@ -9693,7 +9710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>64</v>
       </c>
@@ -9716,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>49</v>
       </c>
@@ -9739,7 +9756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>61</v>
       </c>
@@ -9762,7 +9779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -9785,7 +9802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>53</v>
       </c>
@@ -9808,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>80</v>
       </c>
@@ -9831,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>74</v>
       </c>
@@ -9854,7 +9871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>62</v>
       </c>
@@ -9877,7 +9894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>55</v>
       </c>
@@ -9900,7 +9917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>67</v>
       </c>
@@ -9923,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>18</v>
       </c>
@@ -9946,7 +9963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>73</v>
       </c>
@@ -9969,7 +9986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>30</v>
       </c>
@@ -9992,7 +10009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>56</v>
       </c>
@@ -10015,7 +10032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>26</v>
       </c>
@@ -10038,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>17</v>
       </c>
@@ -10061,7 +10078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>10</v>
       </c>
@@ -10084,7 +10101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -10107,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -10130,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>5</v>
       </c>
@@ -10153,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>57</v>
       </c>
@@ -10176,7 +10193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>23</v>
       </c>
@@ -10199,7 +10216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>66</v>
       </c>
@@ -10222,7 +10239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>29</v>
       </c>
@@ -10245,7 +10262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -10268,7 +10285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>25</v>
       </c>
@@ -10291,7 +10308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>71</v>
       </c>
@@ -10314,7 +10331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>34</v>
       </c>
@@ -10337,7 +10354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>52</v>
       </c>

--- a/output/bombs_bets.xlsx
+++ b/output/bombs_bets.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="3" sheetId="3" r:id="rId3"/>
     <sheet name="4" sheetId="4" r:id="rId4"/>
     <sheet name="5" sheetId="5" r:id="rId5"/>
+    <sheet name="6" sheetId="6" r:id="rId6"/>
+    <sheet name="7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="304">
   <si>
     <t>Name</t>
   </si>
@@ -293,138 +295,138 @@
     <t>сити</t>
   </si>
   <si>
+    <t>вегхорст</t>
+  </si>
+  <si>
+    <t>оярсабаль</t>
+  </si>
+  <si>
+    <t>уоткинс</t>
+  </si>
+  <si>
+    <t>грифо</t>
+  </si>
+  <si>
+    <t>роналду</t>
+  </si>
+  <si>
+    <t>бальде</t>
+  </si>
+  <si>
+    <t>вамангитука</t>
+  </si>
+  <si>
+    <t>мопе</t>
+  </si>
+  <si>
+    <t>исак</t>
+  </si>
+  <si>
     <t>альсате</t>
   </si>
   <si>
+    <t>баку</t>
+  </si>
+  <si>
+    <t>невеш</t>
+  </si>
+  <si>
+    <t>пентек</t>
+  </si>
+  <si>
+    <t>каладжич</t>
+  </si>
+  <si>
+    <t>политано</t>
+  </si>
+  <si>
+    <t>штиндль</t>
+  </si>
+  <si>
+    <t>нойхаус</t>
+  </si>
+  <si>
+    <t>кьеза</t>
+  </si>
+  <si>
     <t>ахамада</t>
   </si>
   <si>
-    <t>баку</t>
-  </si>
-  <si>
-    <t>бальде</t>
+    <t>товен</t>
+  </si>
+  <si>
+    <t>тюрам</t>
+  </si>
+  <si>
+    <t>мората</t>
+  </si>
+  <si>
+    <t>рибери</t>
+  </si>
+  <si>
+    <t>кунья</t>
+  </si>
+  <si>
+    <t>хван</t>
   </si>
   <si>
     <t>бинтекур</t>
   </si>
   <si>
-    <t>вамангитука</t>
-  </si>
-  <si>
-    <t>вегхорст</t>
-  </si>
-  <si>
-    <t>грифо</t>
-  </si>
-  <si>
-    <t>исак</t>
-  </si>
-  <si>
-    <t>каладжич</t>
-  </si>
-  <si>
-    <t>кунья</t>
-  </si>
-  <si>
-    <t>кьеза</t>
-  </si>
-  <si>
-    <t>мопе</t>
-  </si>
-  <si>
-    <t>мората</t>
-  </si>
-  <si>
-    <t>невеш</t>
-  </si>
-  <si>
-    <t>нойхаус</t>
-  </si>
-  <si>
-    <t>оярсабаль</t>
-  </si>
-  <si>
-    <t>пентек</t>
-  </si>
-  <si>
-    <t>политано</t>
-  </si>
-  <si>
-    <t>рибери</t>
-  </si>
-  <si>
-    <t>роналду</t>
-  </si>
-  <si>
-    <t>товен</t>
-  </si>
-  <si>
-    <t>тюрам</t>
-  </si>
-  <si>
-    <t>уоткинс</t>
-  </si>
-  <si>
-    <t>хван</t>
-  </si>
-  <si>
-    <t>штиндль</t>
+    <t>вольфсбург</t>
+  </si>
+  <si>
+    <t>реал сосьедад</t>
+  </si>
+  <si>
+    <t>астон вилла</t>
+  </si>
+  <si>
+    <t>фрайбург</t>
+  </si>
+  <si>
+    <t>ювентус</t>
+  </si>
+  <si>
+    <t>сампдория</t>
+  </si>
+  <si>
+    <t>штутгарт</t>
   </si>
   <si>
     <t>брайтон</t>
   </si>
   <si>
-    <t>штутгарт</t>
-  </si>
-  <si>
-    <t>вольфсбург</t>
-  </si>
-  <si>
-    <t>сампдория</t>
+    <t>хетафе</t>
+  </si>
+  <si>
+    <t>вулверхэмптон</t>
+  </si>
+  <si>
+    <t>герта</t>
+  </si>
+  <si>
+    <t>штуггарт</t>
+  </si>
+  <si>
+    <t>наполи</t>
+  </si>
+  <si>
+    <t>боруссия м</t>
+  </si>
+  <si>
+    <t>марсель</t>
+  </si>
+  <si>
+    <t>фиорентина</t>
+  </si>
+  <si>
+    <t>бордо</t>
   </si>
   <si>
     <t>вердер</t>
   </si>
   <si>
-    <t>фрайбург</t>
-  </si>
-  <si>
-    <t>реал сосьедад</t>
-  </si>
-  <si>
-    <t>хетафе</t>
-  </si>
-  <si>
-    <t>штуггарт</t>
-  </si>
-  <si>
-    <t>герта</t>
-  </si>
-  <si>
-    <t>ювентус</t>
-  </si>
-  <si>
-    <t>вулверхэмптон</t>
-  </si>
-  <si>
-    <t>боруссия м</t>
-  </si>
-  <si>
-    <t>наполи</t>
-  </si>
-  <si>
-    <t>фиорентина</t>
-  </si>
-  <si>
-    <t>марсель</t>
-  </si>
-  <si>
-    <t>астон вилла</t>
-  </si>
-  <si>
-    <t>бордо</t>
-  </si>
-  <si>
     <t>анхелиньо</t>
   </si>
   <si>
@@ -783,13 +785,160 @@
   </si>
   <si>
     <t>арс</t>
+  </si>
+  <si>
+    <t>артур</t>
+  </si>
+  <si>
+    <t>моллен</t>
+  </si>
+  <si>
+    <t>аллер</t>
+  </si>
+  <si>
+    <t>де йонг</t>
+  </si>
+  <si>
+    <t>маунт</t>
+  </si>
+  <si>
+    <t>бебу</t>
+  </si>
+  <si>
+    <t>бакасетас</t>
+  </si>
+  <si>
+    <t>влашич</t>
+  </si>
+  <si>
+    <t>влахович</t>
+  </si>
+  <si>
+    <t>гийомено</t>
+  </si>
+  <si>
+    <t>рэшфорд</t>
+  </si>
+  <si>
+    <t>классен</t>
+  </si>
+  <si>
+    <t>гризман</t>
+  </si>
+  <si>
+    <t>дуа</t>
+  </si>
+  <si>
+    <t>ляказетт</t>
+  </si>
+  <si>
+    <t>фарду</t>
+  </si>
+  <si>
+    <t>нвакаэме</t>
+  </si>
+  <si>
+    <t>антони</t>
+  </si>
+  <si>
+    <t>кокорин</t>
+  </si>
+  <si>
+    <t>базель</t>
+  </si>
+  <si>
+    <t>ман юнайтед</t>
+  </si>
+  <si>
+    <t>трабзонспор</t>
+  </si>
+  <si>
+    <t>цска</t>
+  </si>
+  <si>
+    <t>санкт-галлен</t>
+  </si>
+  <si>
+    <t>хофенхайм</t>
+  </si>
+  <si>
+    <t>боаду</t>
+  </si>
+  <si>
+    <t>броя</t>
+  </si>
+  <si>
+    <t>вольф</t>
+  </si>
+  <si>
+    <t>заболотный</t>
+  </si>
+  <si>
+    <t>ихеначо</t>
+  </si>
+  <si>
+    <t>копмейнерс</t>
+  </si>
+  <si>
+    <t>ларссон</t>
+  </si>
+  <si>
+    <t>мартинес</t>
+  </si>
+  <si>
+    <t>плеа</t>
+  </si>
+  <si>
+    <t>понсе</t>
+  </si>
+  <si>
+    <t>промес</t>
+  </si>
+  <si>
+    <t>санчес</t>
+  </si>
+  <si>
+    <t>сарджент</t>
+  </si>
+  <si>
+    <t>соу</t>
+  </si>
+  <si>
+    <t>феликс</t>
+  </si>
+  <si>
+    <t>хоффман</t>
+  </si>
+  <si>
+    <t>шик</t>
+  </si>
+  <si>
+    <t>аз</t>
+  </si>
+  <si>
+    <t>витесс</t>
+  </si>
+  <si>
+    <t>кельн</t>
+  </si>
+  <si>
+    <t>сочи</t>
+  </si>
+  <si>
+    <t>спартак</t>
+  </si>
+  <si>
+    <t>ростов</t>
+  </si>
+  <si>
+    <t>байер</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,22 +997,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -901,7 +1045,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -935,7 +1079,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -970,10 +1113,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1146,16 +1288,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>27</v>
       </c>
@@ -1198,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1221,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>54</v>
       </c>
@@ -1244,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>55</v>
       </c>
@@ -1267,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>28</v>
       </c>
@@ -1290,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1313,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>29</v>
       </c>
@@ -1336,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>56</v>
       </c>
@@ -1359,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>57</v>
       </c>
@@ -1382,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1405,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>30</v>
       </c>
@@ -1428,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>58</v>
       </c>
@@ -1451,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1474,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>31</v>
       </c>
@@ -1497,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>32</v>
       </c>
@@ -1520,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>59</v>
       </c>
@@ -1543,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -1566,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -1589,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>33</v>
       </c>
@@ -1612,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>61</v>
       </c>
@@ -1635,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>34</v>
       </c>
@@ -1658,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -1681,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>35</v>
       </c>
@@ -1704,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>8</v>
       </c>
@@ -1727,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>62</v>
       </c>
@@ -1750,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>9</v>
       </c>
@@ -1773,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>36</v>
       </c>
@@ -1796,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>63</v>
       </c>
@@ -1819,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>64</v>
       </c>
@@ -1842,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>10</v>
       </c>
@@ -1865,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>37</v>
       </c>
@@ -1888,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -1911,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>65</v>
       </c>
@@ -1934,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>38</v>
       </c>
@@ -1957,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>39</v>
       </c>
@@ -1980,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>66</v>
       </c>
@@ -2003,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>12</v>
       </c>
@@ -2026,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>40</v>
       </c>
@@ -2049,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>67</v>
       </c>
@@ -2072,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>13</v>
       </c>
@@ -2095,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>68</v>
       </c>
@@ -2118,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>14</v>
       </c>
@@ -2141,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2164,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2187,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>15</v>
       </c>
@@ -2210,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>69</v>
       </c>
@@ -2233,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>70</v>
       </c>
@@ -2256,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>16</v>
       </c>
@@ -2279,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>43</v>
       </c>
@@ -2302,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>17</v>
       </c>
@@ -2325,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>44</v>
       </c>
@@ -2348,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>71</v>
       </c>
@@ -2371,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>18</v>
       </c>
@@ -2394,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>45</v>
       </c>
@@ -2417,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>72</v>
       </c>
@@ -2440,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>19</v>
       </c>
@@ -2463,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>46</v>
       </c>
@@ -2486,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>73</v>
       </c>
@@ -2509,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>74</v>
       </c>
@@ -2532,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>47</v>
       </c>
@@ -2555,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>20</v>
       </c>
@@ -2578,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>48</v>
       </c>
@@ -2601,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>75</v>
       </c>
@@ -2624,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>21</v>
       </c>
@@ -2647,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>22</v>
       </c>
@@ -2670,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>49</v>
       </c>
@@ -2693,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>76</v>
       </c>
@@ -2716,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>23</v>
       </c>
@@ -2739,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>50</v>
       </c>
@@ -2762,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>77</v>
       </c>
@@ -2785,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>78</v>
       </c>
@@ -2808,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>24</v>
       </c>
@@ -2831,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>51</v>
       </c>
@@ -2854,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>52</v>
       </c>
@@ -2877,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>25</v>
       </c>
@@ -2900,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>79</v>
       </c>
@@ -2923,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>53</v>
       </c>
@@ -2946,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>26</v>
       </c>
@@ -2969,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -2993,24 +3133,19 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G80">
-    <sortCondition ref="B1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3030,7 +3165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3038,10 +3173,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3053,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>27</v>
       </c>
@@ -3061,10 +3196,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3076,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>54</v>
       </c>
@@ -3084,10 +3219,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3099,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>55</v>
       </c>
@@ -3107,10 +3242,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3122,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>28</v>
       </c>
@@ -3130,10 +3265,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3145,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -3153,10 +3288,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3168,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>29</v>
       </c>
@@ -3176,10 +3311,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3191,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>56</v>
       </c>
@@ -3214,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -3222,10 +3357,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3237,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>30</v>
       </c>
@@ -3245,10 +3380,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3260,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>57</v>
       </c>
@@ -3268,10 +3403,10 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3283,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>58</v>
       </c>
@@ -3291,10 +3426,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3306,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>31</v>
       </c>
@@ -3317,7 +3452,7 @@
         <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3329,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -3352,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>32</v>
       </c>
@@ -3360,10 +3495,10 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3375,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>59</v>
       </c>
@@ -3383,10 +3518,10 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3398,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -3406,10 +3541,10 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3421,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>33</v>
       </c>
@@ -3429,10 +3564,10 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3444,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>60</v>
       </c>
@@ -3452,10 +3587,10 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3467,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -3475,10 +3610,10 @@
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3490,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>7</v>
       </c>
@@ -3498,10 +3633,10 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3513,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>61</v>
       </c>
@@ -3521,10 +3656,10 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3536,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>34</v>
       </c>
@@ -3544,10 +3679,10 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3559,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>62</v>
       </c>
@@ -3567,10 +3702,10 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3582,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>35</v>
       </c>
@@ -3590,10 +3725,10 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3605,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>8</v>
       </c>
@@ -3628,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>63</v>
       </c>
@@ -3636,10 +3771,10 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3651,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>36</v>
       </c>
@@ -3659,10 +3794,10 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3674,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>9</v>
       </c>
@@ -3682,10 +3817,10 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3697,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>10</v>
       </c>
@@ -3705,10 +3840,10 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3720,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>64</v>
       </c>
@@ -3728,10 +3863,10 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3743,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>37</v>
       </c>
@@ -3754,7 +3889,7 @@
         <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3766,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>11</v>
       </c>
@@ -3789,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>65</v>
       </c>
@@ -3797,10 +3932,10 @@
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -3812,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>38</v>
       </c>
@@ -3835,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>12</v>
       </c>
@@ -3843,10 +3978,10 @@
         <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3858,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>66</v>
       </c>
@@ -3866,10 +4001,10 @@
         <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3881,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -3889,10 +4024,10 @@
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3904,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>67</v>
       </c>
@@ -3927,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3935,10 +4070,10 @@
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3950,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>13</v>
       </c>
@@ -3958,10 +4093,10 @@
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3973,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3981,10 +4116,10 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3996,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>68</v>
       </c>
@@ -4004,10 +4139,10 @@
         <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -4019,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>15</v>
       </c>
@@ -4027,10 +4162,10 @@
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4042,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -4050,10 +4185,10 @@
         <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -4065,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>69</v>
       </c>
@@ -4088,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>16</v>
       </c>
@@ -4096,10 +4231,10 @@
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -4111,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>70</v>
       </c>
@@ -4119,10 +4254,10 @@
         <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -4134,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>43</v>
       </c>
@@ -4142,10 +4277,10 @@
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -4157,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>44</v>
       </c>
@@ -4165,10 +4300,10 @@
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -4180,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>71</v>
       </c>
@@ -4188,10 +4323,10 @@
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D52" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -4203,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>17</v>
       </c>
@@ -4226,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>72</v>
       </c>
@@ -4234,10 +4369,10 @@
         <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D54" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -4249,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>45</v>
       </c>
@@ -4257,10 +4392,10 @@
         <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -4272,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>19</v>
       </c>
@@ -4295,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>73</v>
       </c>
@@ -4303,10 +4438,10 @@
         <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D57" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -4318,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>46</v>
       </c>
@@ -4326,10 +4461,10 @@
         <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D58" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -4341,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>47</v>
       </c>
@@ -4364,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>20</v>
       </c>
@@ -4372,10 +4507,10 @@
         <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D60" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4387,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>74</v>
       </c>
@@ -4395,10 +4530,10 @@
         <v>26</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4410,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>48</v>
       </c>
@@ -4418,10 +4553,10 @@
         <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -4433,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>21</v>
       </c>
@@ -4444,7 +4579,7 @@
         <v>99</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4456,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>75</v>
       </c>
@@ -4479,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>49</v>
       </c>
@@ -4487,10 +4622,10 @@
         <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4502,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>76</v>
       </c>
@@ -4525,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>22</v>
       </c>
@@ -4548,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>77</v>
       </c>
@@ -4571,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>50</v>
       </c>
@@ -4579,10 +4714,10 @@
         <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D69" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4594,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>23</v>
       </c>
@@ -4617,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>24</v>
       </c>
@@ -4625,10 +4760,10 @@
         <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D71" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4640,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>78</v>
       </c>
@@ -4663,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>51</v>
       </c>
@@ -4674,7 +4809,7 @@
         <v>115</v>
       </c>
       <c r="D73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4686,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>79</v>
       </c>
@@ -4694,10 +4829,10 @@
         <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D74" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4709,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>25</v>
       </c>
@@ -4717,10 +4852,10 @@
         <v>31</v>
       </c>
       <c r="C75" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D75" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4732,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>52</v>
       </c>
@@ -4740,10 +4875,10 @@
         <v>31</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D76" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4755,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>53</v>
       </c>
@@ -4763,10 +4898,10 @@
         <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4778,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>80</v>
       </c>
@@ -4786,10 +4921,10 @@
         <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D78" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4801,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>26</v>
       </c>
@@ -4825,22 +4960,19 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G79">
-    <sortCondition ref="B1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4860,7 +4992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>50</v>
       </c>
@@ -4883,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>52</v>
       </c>
@@ -4906,7 +5038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>70</v>
       </c>
@@ -4929,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>63</v>
       </c>
@@ -4952,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -4975,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>61</v>
       </c>
@@ -4998,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>71</v>
       </c>
@@ -5021,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>79</v>
       </c>
@@ -5044,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>43</v>
       </c>
@@ -5067,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>26</v>
       </c>
@@ -5090,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>68</v>
       </c>
@@ -5113,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>55</v>
       </c>
@@ -5136,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -5159,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -5182,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>72</v>
       </c>
@@ -5205,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>57</v>
       </c>
@@ -5228,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -5251,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -5274,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>41</v>
       </c>
@@ -5297,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>31</v>
       </c>
@@ -5320,7 +5452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -5343,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>62</v>
       </c>
@@ -5366,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>14</v>
       </c>
@@ -5389,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>67</v>
       </c>
@@ -5412,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>13</v>
       </c>
@@ -5435,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>48</v>
       </c>
@@ -5458,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>19</v>
       </c>
@@ -5481,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>9</v>
       </c>
@@ -5504,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -5527,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>11</v>
       </c>
@@ -5550,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>77</v>
       </c>
@@ -5573,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>58</v>
       </c>
@@ -5596,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>22</v>
       </c>
@@ -5619,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -5642,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>40</v>
       </c>
@@ -5665,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>18</v>
       </c>
@@ -5688,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -5711,7 +5843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -5734,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>24</v>
       </c>
@@ -5757,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>29</v>
       </c>
@@ -5780,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>75</v>
       </c>
@@ -5803,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>74</v>
       </c>
@@ -5826,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>30</v>
       </c>
@@ -5849,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>28</v>
       </c>
@@ -5872,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>66</v>
       </c>
@@ -5895,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>80</v>
       </c>
@@ -5918,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>51</v>
       </c>
@@ -5941,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>7</v>
       </c>
@@ -5964,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>42</v>
       </c>
@@ -5972,10 +6104,10 @@
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -5987,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>44</v>
       </c>
@@ -5995,10 +6127,10 @@
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -6010,7 +6142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>54</v>
       </c>
@@ -6018,10 +6150,10 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -6033,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>59</v>
       </c>
@@ -6041,10 +6173,10 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -6056,7 +6188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>47</v>
       </c>
@@ -6064,10 +6196,10 @@
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -6079,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>21</v>
       </c>
@@ -6087,10 +6219,10 @@
         <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -6102,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>46</v>
       </c>
@@ -6125,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>38</v>
       </c>
@@ -6148,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>78</v>
       </c>
@@ -6171,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>10</v>
       </c>
@@ -6194,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>76</v>
       </c>
@@ -6217,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>56</v>
       </c>
@@ -6240,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>20</v>
       </c>
@@ -6263,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>32</v>
       </c>
@@ -6286,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>53</v>
       </c>
@@ -6309,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>36</v>
       </c>
@@ -6332,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>23</v>
       </c>
@@ -6355,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>17</v>
       </c>
@@ -6378,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>60</v>
       </c>
@@ -6401,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -6424,7 +6556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>34</v>
       </c>
@@ -6447,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>73</v>
       </c>
@@ -6470,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>27</v>
       </c>
@@ -6493,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>33</v>
       </c>
@@ -6516,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>37</v>
       </c>
@@ -6539,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>65</v>
       </c>
@@ -6562,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>25</v>
       </c>
@@ -6585,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>4</v>
       </c>
@@ -6608,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -6631,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>12</v>
       </c>
@@ -6654,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>49</v>
       </c>
@@ -6677,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>45</v>
       </c>
@@ -6706,14 +6838,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6733,7 +6865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>50</v>
       </c>
@@ -6756,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -6779,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>31</v>
       </c>
@@ -6802,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>83</v>
       </c>
@@ -6825,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>41</v>
       </c>
@@ -6848,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>65</v>
       </c>
@@ -6871,7 +7003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -6894,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>13</v>
       </c>
@@ -6917,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>84</v>
       </c>
@@ -6940,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>66</v>
       </c>
@@ -6963,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>44</v>
       </c>
@@ -6986,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>76</v>
       </c>
@@ -7009,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>61</v>
       </c>
@@ -7032,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>33</v>
       </c>
@@ -7055,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -7078,7 +7210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>21</v>
       </c>
@@ -7089,7 +7221,7 @@
         <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -7101,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>60</v>
       </c>
@@ -7112,7 +7244,7 @@
         <v>190</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -7124,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>68</v>
       </c>
@@ -7135,7 +7267,7 @@
         <v>190</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -7147,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>59</v>
       </c>
@@ -7170,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>48</v>
       </c>
@@ -7193,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>11</v>
       </c>
@@ -7216,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>51</v>
       </c>
@@ -7239,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7262,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>6</v>
       </c>
@@ -7285,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>37</v>
       </c>
@@ -7308,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>75</v>
       </c>
@@ -7331,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>19</v>
       </c>
@@ -7354,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -7377,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>42</v>
       </c>
@@ -7400,7 +7532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>15</v>
       </c>
@@ -7423,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>63</v>
       </c>
@@ -7446,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>40</v>
       </c>
@@ -7469,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>12</v>
       </c>
@@ -7492,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>80</v>
       </c>
@@ -7515,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>81</v>
       </c>
@@ -7538,7 +7670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>53</v>
       </c>
@@ -7561,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>72</v>
       </c>
@@ -7584,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>64</v>
       </c>
@@ -7607,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>62</v>
       </c>
@@ -7630,7 +7762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -7653,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>77</v>
       </c>
@@ -7676,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>29</v>
       </c>
@@ -7699,7 +7831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>34</v>
       </c>
@@ -7722,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>71</v>
       </c>
@@ -7745,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>26</v>
       </c>
@@ -7768,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>70</v>
       </c>
@@ -7791,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>73</v>
       </c>
@@ -7814,7 +7946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>78</v>
       </c>
@@ -7837,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>32</v>
       </c>
@@ -7860,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>43</v>
       </c>
@@ -7883,7 +8015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>18</v>
       </c>
@@ -7906,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>35</v>
       </c>
@@ -7929,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>69</v>
       </c>
@@ -7940,7 +8072,7 @@
         <v>197</v>
       </c>
       <c r="D54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -7952,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>16</v>
       </c>
@@ -7975,7 +8107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>14</v>
       </c>
@@ -7998,7 +8130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>47</v>
       </c>
@@ -8021,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>3</v>
       </c>
@@ -8044,7 +8176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8067,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>82</v>
       </c>
@@ -8090,7 +8222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>55</v>
       </c>
@@ -8113,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>4</v>
       </c>
@@ -8136,7 +8268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>17</v>
       </c>
@@ -8159,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>24</v>
       </c>
@@ -8182,7 +8314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>7</v>
       </c>
@@ -8205,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>67</v>
       </c>
@@ -8228,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>79</v>
       </c>
@@ -8251,7 +8383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -8274,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>54</v>
       </c>
@@ -8297,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>30</v>
       </c>
@@ -8320,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>20</v>
       </c>
@@ -8343,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>38</v>
       </c>
@@ -8366,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>52</v>
       </c>
@@ -8374,10 +8506,10 @@
         <v>29</v>
       </c>
       <c r="C73" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D73" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -8389,7 +8521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>25</v>
       </c>
@@ -8400,7 +8532,7 @@
         <v>208</v>
       </c>
       <c r="D74" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -8412,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>49</v>
       </c>
@@ -8423,7 +8555,7 @@
         <v>208</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -8435,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>36</v>
       </c>
@@ -8458,7 +8590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>46</v>
       </c>
@@ -8487,14 +8619,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8514,7 +8646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>14</v>
       </c>
@@ -8537,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>46</v>
       </c>
@@ -8560,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>63</v>
       </c>
@@ -8583,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>70</v>
       </c>
@@ -8606,7 +8738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -8629,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>78</v>
       </c>
@@ -8652,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>77</v>
       </c>
@@ -8675,7 +8807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>59</v>
       </c>
@@ -8698,7 +8830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>33</v>
       </c>
@@ -8721,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -8744,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>79</v>
       </c>
@@ -8767,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>50</v>
       </c>
@@ -8790,7 +8922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>38</v>
       </c>
@@ -8813,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>60</v>
       </c>
@@ -8836,7 +8968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>37</v>
       </c>
@@ -8859,7 +8991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>36</v>
       </c>
@@ -8882,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>47</v>
       </c>
@@ -8905,7 +9037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>43</v>
       </c>
@@ -8928,7 +9060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>68</v>
       </c>
@@ -8951,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -8974,7 +9106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>45</v>
       </c>
@@ -8997,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>32</v>
       </c>
@@ -9020,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -9043,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>27</v>
       </c>
@@ -9066,7 +9198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>9</v>
       </c>
@@ -9089,7 +9221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>8</v>
       </c>
@@ -9112,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>4</v>
       </c>
@@ -9135,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>12</v>
       </c>
@@ -9158,7 +9290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>13</v>
       </c>
@@ -9181,7 +9313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>42</v>
       </c>
@@ -9204,7 +9336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -9227,7 +9359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>19</v>
       </c>
@@ -9250,7 +9382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -9273,7 +9405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>16</v>
       </c>
@@ -9296,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>11</v>
       </c>
@@ -9319,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>72</v>
       </c>
@@ -9342,7 +9474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -9365,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>76</v>
       </c>
@@ -9388,7 +9520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>48</v>
       </c>
@@ -9411,7 +9543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>28</v>
       </c>
@@ -9434,7 +9566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>54</v>
       </c>
@@ -9457,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -9480,7 +9612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>65</v>
       </c>
@@ -9503,7 +9635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>31</v>
       </c>
@@ -9526,7 +9658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>7</v>
       </c>
@@ -9549,7 +9681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -9572,7 +9704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>51</v>
       </c>
@@ -9595,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>44</v>
       </c>
@@ -9618,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>35</v>
       </c>
@@ -9641,7 +9773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>22</v>
       </c>
@@ -9664,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>41</v>
       </c>
@@ -9687,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>75</v>
       </c>
@@ -9710,7 +9842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>64</v>
       </c>
@@ -9733,7 +9865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>49</v>
       </c>
@@ -9756,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>61</v>
       </c>
@@ -9779,7 +9911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -9802,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>53</v>
       </c>
@@ -9825,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>80</v>
       </c>
@@ -9848,7 +9980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>74</v>
       </c>
@@ -9871,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>62</v>
       </c>
@@ -9894,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>55</v>
       </c>
@@ -9917,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>67</v>
       </c>
@@ -9940,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>18</v>
       </c>
@@ -9963,7 +10095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>73</v>
       </c>
@@ -9986,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>30</v>
       </c>
@@ -10009,7 +10141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>56</v>
       </c>
@@ -10032,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>26</v>
       </c>
@@ -10055,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>17</v>
       </c>
@@ -10078,7 +10210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>10</v>
       </c>
@@ -10101,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -10124,7 +10256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -10147,7 +10279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>5</v>
       </c>
@@ -10170,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>57</v>
       </c>
@@ -10193,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>23</v>
       </c>
@@ -10216,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>66</v>
       </c>
@@ -10239,7 +10371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>29</v>
       </c>
@@ -10262,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -10285,7 +10417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>25</v>
       </c>
@@ -10308,7 +10440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>71</v>
       </c>
@@ -10331,7 +10463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>34</v>
       </c>
@@ -10354,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>52</v>
       </c>
@@ -10375,6 +10507,3545 @@
       </c>
       <c r="G82">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" t="s">
+        <v>278</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>266</v>
+      </c>
+      <c r="D29" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>267</v>
+      </c>
+      <c r="D31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D34" t="s">
+        <v>279</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" t="s">
+        <v>214</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>255</v>
+      </c>
+      <c r="D37" t="s">
+        <v>274</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D38" t="s">
+        <v>276</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>259</v>
+      </c>
+      <c r="D39" t="s">
+        <v>248</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>268</v>
+      </c>
+      <c r="D41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" t="s">
+        <v>214</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>267</v>
+      </c>
+      <c r="D46" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>269</v>
+      </c>
+      <c r="D47" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>41</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" t="s">
+        <v>248</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>68</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>270</v>
+      </c>
+      <c r="D51" t="s">
+        <v>214</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" t="s">
+        <v>183</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>69</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>271</v>
+      </c>
+      <c r="D54" t="s">
+        <v>276</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>44</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" t="s">
+        <v>277</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>70</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>272</v>
+      </c>
+      <c r="D58" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59" t="s">
+        <v>214</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>71</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>46</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" t="s">
+        <v>214</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" t="s">
+        <v>261</v>
+      </c>
+      <c r="D64" t="s">
+        <v>276</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>47</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>227</v>
+      </c>
+      <c r="D65" t="s">
+        <v>248</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>48</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>262</v>
+      </c>
+      <c r="D66" t="s">
+        <v>277</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>22</v>
+      </c>
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" t="s">
+        <v>273</v>
+      </c>
+      <c r="D67" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" t="s">
+        <v>181</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>49</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" t="s">
+        <v>263</v>
+      </c>
+      <c r="D69" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>50</v>
+      </c>
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" t="s">
+        <v>255</v>
+      </c>
+      <c r="D71" t="s">
+        <v>274</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>76</v>
+      </c>
+      <c r="B72" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>24</v>
+      </c>
+      <c r="B73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" t="s">
+        <v>183</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>231</v>
+      </c>
+      <c r="D74" t="s">
+        <v>248</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" t="s">
+        <v>214</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>51</v>
+      </c>
+      <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" t="s">
+        <v>181</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" t="s">
+        <v>299</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" t="s">
+        <v>300</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" t="s">
+        <v>300</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" t="s">
+        <v>300</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27" t="s">
+        <v>297</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>285</v>
+      </c>
+      <c r="D28" t="s">
+        <v>297</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>286</v>
+      </c>
+      <c r="D30" t="s">
+        <v>301</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" t="s">
+        <v>219</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" t="s">
+        <v>219</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>287</v>
+      </c>
+      <c r="D46" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>287</v>
+      </c>
+      <c r="D47" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>287</v>
+      </c>
+      <c r="D48" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>287</v>
+      </c>
+      <c r="D49" t="s">
+        <v>219</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>287</v>
+      </c>
+      <c r="D50" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
+        <v>287</v>
+      </c>
+      <c r="D51" t="s">
+        <v>219</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D54" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>288</v>
+      </c>
+      <c r="D55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>289</v>
+      </c>
+      <c r="D56" t="s">
+        <v>301</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>290</v>
+      </c>
+      <c r="D57" t="s">
+        <v>301</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>290</v>
+      </c>
+      <c r="D58" t="s">
+        <v>301</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
+        <v>290</v>
+      </c>
+      <c r="D59" t="s">
+        <v>301</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>291</v>
+      </c>
+      <c r="D60" t="s">
+        <v>219</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>291</v>
+      </c>
+      <c r="D61" t="s">
+        <v>219</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" t="s">
+        <v>292</v>
+      </c>
+      <c r="D62" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>18</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" t="s">
+        <v>293</v>
+      </c>
+      <c r="D63" t="s">
+        <v>302</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" t="s">
+        <v>252</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>34</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>243</v>
+      </c>
+      <c r="D65" t="s">
+        <v>252</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" t="s">
+        <v>252</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>47</v>
+      </c>
+      <c r="B69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" t="s">
+        <v>243</v>
+      </c>
+      <c r="D69" t="s">
+        <v>252</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>45</v>
+      </c>
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" t="s">
+        <v>235</v>
+      </c>
+      <c r="D70" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" t="s">
+        <v>130</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>93</v>
+      </c>
+      <c r="D72" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" t="s">
+        <v>119</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>33</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" t="s">
+        <v>119</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>32</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>294</v>
+      </c>
+      <c r="D75" t="s">
+        <v>252</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>37</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>295</v>
+      </c>
+      <c r="D76" t="s">
+        <v>130</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>51</v>
+      </c>
+      <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" t="s">
+        <v>296</v>
+      </c>
+      <c r="D77" t="s">
+        <v>303</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/bombs_bets.xlsx
+++ b/output/bombs_bets.xlsx
@@ -14,13 +14,15 @@
     <sheet name="5" sheetId="5" r:id="rId5"/>
     <sheet name="6" sheetId="6" r:id="rId6"/>
     <sheet name="7" sheetId="7" r:id="rId7"/>
+    <sheet name="8" sheetId="8" r:id="rId8"/>
+    <sheet name="9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="342">
   <si>
     <t>Name</t>
   </si>
@@ -932,6 +934,120 @@
   </si>
   <si>
     <t>байер</t>
+  </si>
+  <si>
+    <t>алькасер</t>
+  </si>
+  <si>
+    <t>бэйл</t>
+  </si>
+  <si>
+    <t>винисиус</t>
+  </si>
+  <si>
+    <t>кент</t>
+  </si>
+  <si>
+    <t>молина</t>
+  </si>
+  <si>
+    <t>морелос</t>
+  </si>
+  <si>
+    <t>станчу</t>
+  </si>
+  <si>
+    <t>тоттэнхэм</t>
+  </si>
+  <si>
+    <t>барса</t>
+  </si>
+  <si>
+    <t>рейнджерс</t>
+  </si>
+  <si>
+    <t>славия</t>
+  </si>
+  <si>
+    <t>аспас</t>
+  </si>
+  <si>
+    <t>бейл</t>
+  </si>
+  <si>
+    <t>бен-йеддер</t>
+  </si>
+  <si>
+    <t>буяльский</t>
+  </si>
+  <si>
+    <t>ван де стрек</t>
+  </si>
+  <si>
+    <t>гладкий</t>
+  </si>
+  <si>
+    <t>дестро</t>
+  </si>
+  <si>
+    <t>захеди</t>
+  </si>
+  <si>
+    <t>ингс</t>
+  </si>
+  <si>
+    <t>инсинье</t>
+  </si>
+  <si>
+    <t>кессье</t>
+  </si>
+  <si>
+    <t>кулибали</t>
+  </si>
+  <si>
+    <t>леау</t>
+  </si>
+  <si>
+    <t>махи</t>
+  </si>
+  <si>
+    <t>мина</t>
+  </si>
+  <si>
+    <t>опенда</t>
+  </si>
+  <si>
+    <t>соболев</t>
+  </si>
+  <si>
+    <t>фолланд</t>
+  </si>
+  <si>
+    <t>фомин</t>
+  </si>
+  <si>
+    <t>эдегор</t>
+  </si>
+  <si>
+    <t>эндо</t>
+  </si>
+  <si>
+    <t>сельта</t>
+  </si>
+  <si>
+    <t>монако</t>
+  </si>
+  <si>
+    <t>утрехт</t>
+  </si>
+  <si>
+    <t>заря</t>
+  </si>
+  <si>
+    <t>дженоа</t>
+  </si>
+  <si>
+    <t>динамо москва</t>
   </si>
 </sst>
 </file>
@@ -14051,4 +14167,3612 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D22" t="s">
+        <v>313</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>308</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>308</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41" t="s">
+        <v>313</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>309</v>
+      </c>
+      <c r="D42" t="s">
+        <v>313</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" t="s">
+        <v>217</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>63</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>265</v>
+      </c>
+      <c r="D57" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>265</v>
+      </c>
+      <c r="D58" t="s">
+        <v>177</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>74</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>206</v>
+      </c>
+      <c r="D60" t="s">
+        <v>217</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>50</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>310</v>
+      </c>
+      <c r="D61" t="s">
+        <v>314</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" t="s">
+        <v>177</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" t="s">
+        <v>182</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>48</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" t="s">
+        <v>182</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>21</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>56</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71" t="s">
+        <v>182</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" t="s">
+        <v>182</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" t="s">
+        <v>182</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>45</v>
+      </c>
+      <c r="B75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" t="s">
+        <v>182</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>60</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76" t="s">
+        <v>182</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>40</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77" t="s">
+        <v>182</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" t="s">
+        <v>337</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" t="s">
+        <v>338</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" t="s">
+        <v>338</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D18" t="s">
+        <v>338</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" t="s">
+        <v>339</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D21" t="s">
+        <v>340</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>322</v>
+      </c>
+      <c r="D22" t="s">
+        <v>339</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>323</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" t="s">
+        <v>217</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" t="s">
+        <v>217</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" t="s">
+        <v>217</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" t="s">
+        <v>217</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>325</v>
+      </c>
+      <c r="D39" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>325</v>
+      </c>
+      <c r="D40" t="s">
+        <v>214</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>325</v>
+      </c>
+      <c r="D41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>67</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>326</v>
+      </c>
+      <c r="D43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>286</v>
+      </c>
+      <c r="D44" t="s">
+        <v>301</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>286</v>
+      </c>
+      <c r="D45" t="s">
+        <v>301</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D46" t="s">
+        <v>301</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>327</v>
+      </c>
+      <c r="D47" t="s">
+        <v>214</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" t="s">
+        <v>181</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" t="s">
+        <v>181</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>328</v>
+      </c>
+      <c r="D51" t="s">
+        <v>338</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>39</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>328</v>
+      </c>
+      <c r="D52" t="s">
+        <v>338</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>33</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>329</v>
+      </c>
+      <c r="D53" t="s">
+        <v>336</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>329</v>
+      </c>
+      <c r="D54" t="s">
+        <v>336</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>44</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>330</v>
+      </c>
+      <c r="D58" t="s">
+        <v>298</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D59" t="s">
+        <v>301</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>290</v>
+      </c>
+      <c r="D60" t="s">
+        <v>301</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>290</v>
+      </c>
+      <c r="D61" t="s">
+        <v>301</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>40</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>290</v>
+      </c>
+      <c r="D62" t="s">
+        <v>301</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>331</v>
+      </c>
+      <c r="D63" t="s">
+        <v>301</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" t="s">
+        <v>331</v>
+      </c>
+      <c r="D64" t="s">
+        <v>301</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>58</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>193</v>
+      </c>
+      <c r="D65" t="s">
+        <v>217</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>332</v>
+      </c>
+      <c r="D67" t="s">
+        <v>337</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>332</v>
+      </c>
+      <c r="D68" t="s">
+        <v>337</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>333</v>
+      </c>
+      <c r="D69" t="s">
+        <v>341</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>333</v>
+      </c>
+      <c r="D70" t="s">
+        <v>341</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" t="s">
+        <v>173</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72" t="s">
+        <v>173</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>52</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>165</v>
+      </c>
+      <c r="D73" t="s">
+        <v>173</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>47</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" t="s">
+        <v>173</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" t="s">
+        <v>334</v>
+      </c>
+      <c r="D77" t="s">
+        <v>181</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>50</v>
+      </c>
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" t="s">
+        <v>335</v>
+      </c>
+      <c r="D78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>28</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>335</v>
+      </c>
+      <c r="D79" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output/bombs_bets.xlsx
+++ b/output/bombs_bets.xlsx
@@ -16,13 +16,15 @@
     <sheet name="7" sheetId="7" r:id="rId7"/>
     <sheet name="8" sheetId="8" r:id="rId8"/>
     <sheet name="9" sheetId="9" r:id="rId9"/>
+    <sheet name="10" sheetId="10" r:id="rId10"/>
+    <sheet name="11" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="377">
   <si>
     <t>Name</t>
   </si>
@@ -1048,6 +1050,111 @@
   </si>
   <si>
     <t>динамо москва</t>
+  </si>
+  <si>
+    <t>агуеро</t>
+  </si>
+  <si>
+    <t>гнабри</t>
+  </si>
+  <si>
+    <t>госенс</t>
+  </si>
+  <si>
+    <t>де брюйне</t>
+  </si>
+  <si>
+    <t>карраско</t>
+  </si>
+  <si>
+    <t>нерес</t>
+  </si>
+  <si>
+    <t>нсаме</t>
+  </si>
+  <si>
+    <t>эйкрейм</t>
+  </si>
+  <si>
+    <t>янг бойз</t>
+  </si>
+  <si>
+    <t>мольде</t>
+  </si>
+  <si>
+    <t>абубакар</t>
+  </si>
+  <si>
+    <t>ауар</t>
+  </si>
+  <si>
+    <t>бэмфорд</t>
+  </si>
+  <si>
+    <t>депай</t>
+  </si>
+  <si>
+    <t>долберг</t>
+  </si>
+  <si>
+    <t>корне</t>
+  </si>
+  <si>
+    <t>крессвелл</t>
+  </si>
+  <si>
+    <t>кюизанс</t>
+  </si>
+  <si>
+    <t>ларин</t>
+  </si>
+  <si>
+    <t>лингард</t>
+  </si>
+  <si>
+    <t>милик</t>
+  </si>
+  <si>
+    <t>осимхен</t>
+  </si>
+  <si>
+    <t>пайет</t>
+  </si>
+  <si>
+    <t>рафинья</t>
+  </si>
+  <si>
+    <t>соучек</t>
+  </si>
+  <si>
+    <t>эдуард</t>
+  </si>
+  <si>
+    <t>бешикташ</t>
+  </si>
+  <si>
+    <t>лион</t>
+  </si>
+  <si>
+    <t>аз алкмар</t>
+  </si>
+  <si>
+    <t>лидс</t>
+  </si>
+  <si>
+    <t>ницца</t>
+  </si>
+  <si>
+    <t>вэст хэм</t>
+  </si>
+  <si>
+    <t>вест хэм</t>
+  </si>
+  <si>
+    <t>рейджерс</t>
+  </si>
+  <si>
+    <t>селтик</t>
   </si>
 </sst>
 </file>
@@ -3253,6 +3360,3545 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>346</v>
+      </c>
+      <c r="D23" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>236</v>
+      </c>
+      <c r="D28" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" t="s">
+        <v>251</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" t="s">
+        <v>251</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" t="s">
+        <v>251</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" t="s">
+        <v>251</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" t="s">
+        <v>251</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" t="s">
+        <v>251</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" t="s">
+        <v>251</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>236</v>
+      </c>
+      <c r="D40" t="s">
+        <v>251</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>236</v>
+      </c>
+      <c r="D41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>236</v>
+      </c>
+      <c r="D42" t="s">
+        <v>251</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" t="s">
+        <v>251</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>236</v>
+      </c>
+      <c r="D44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>236</v>
+      </c>
+      <c r="D45" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D46" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>309</v>
+      </c>
+      <c r="D51" t="s">
+        <v>313</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" t="s">
+        <v>253</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" t="s">
+        <v>253</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>65</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" t="s">
+        <v>253</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" t="s">
+        <v>253</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>68</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>347</v>
+      </c>
+      <c r="D57" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>348</v>
+      </c>
+      <c r="D58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>73</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>348</v>
+      </c>
+      <c r="D59" t="s">
+        <v>350</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>53</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>348</v>
+      </c>
+      <c r="D60" t="s">
+        <v>350</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" t="s">
+        <v>181</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" t="s">
+        <v>181</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" t="s">
+        <v>181</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>241</v>
+      </c>
+      <c r="D65" t="s">
+        <v>253</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>23</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" t="s">
+        <v>220</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>32</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>206</v>
+      </c>
+      <c r="D67" t="s">
+        <v>217</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>243</v>
+      </c>
+      <c r="D69" t="s">
+        <v>252</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" t="s">
+        <v>183</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" t="s">
+        <v>183</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>57</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" t="s">
+        <v>183</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" t="s">
+        <v>177</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>59</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" t="s">
+        <v>349</v>
+      </c>
+      <c r="D76" t="s">
+        <v>351</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>67</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" t="s">
+        <v>210</v>
+      </c>
+      <c r="D77" t="s">
+        <v>214</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D9" t="s">
+        <v>368</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" t="s">
+        <v>370</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" t="s">
+        <v>370</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" t="s">
+        <v>370</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D15" t="s">
+        <v>371</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>355</v>
+      </c>
+      <c r="D16" t="s">
+        <v>369</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>355</v>
+      </c>
+      <c r="D17" t="s">
+        <v>369</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>356</v>
+      </c>
+      <c r="D18" t="s">
+        <v>372</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" t="s">
+        <v>214</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>324</v>
+      </c>
+      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>325</v>
+      </c>
+      <c r="D29" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>285</v>
+      </c>
+      <c r="D30" t="s">
+        <v>370</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>285</v>
+      </c>
+      <c r="D31" t="s">
+        <v>370</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" t="s">
+        <v>370</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>357</v>
+      </c>
+      <c r="D33" t="s">
+        <v>369</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>358</v>
+      </c>
+      <c r="D34" t="s">
+        <v>373</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>359</v>
+      </c>
+      <c r="D35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" t="s">
+        <v>368</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>360</v>
+      </c>
+      <c r="D37" t="s">
+        <v>368</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>360</v>
+      </c>
+      <c r="D38" t="s">
+        <v>368</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>361</v>
+      </c>
+      <c r="D39" t="s">
+        <v>374</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>361</v>
+      </c>
+      <c r="D40" t="s">
+        <v>374</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" t="s">
+        <v>249</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>239</v>
+      </c>
+      <c r="D43" t="s">
+        <v>249</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>69</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>70</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>73</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" t="s">
+        <v>179</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>32</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>362</v>
+      </c>
+      <c r="D58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
+        <v>309</v>
+      </c>
+      <c r="D59" t="s">
+        <v>375</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>363</v>
+      </c>
+      <c r="D61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>54</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>364</v>
+      </c>
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>365</v>
+      </c>
+      <c r="D63" t="s">
+        <v>371</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>365</v>
+      </c>
+      <c r="D64" t="s">
+        <v>371</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s">
+        <v>365</v>
+      </c>
+      <c r="D65" t="s">
+        <v>371</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>52</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" t="s">
+        <v>180</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>59</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" t="s">
+        <v>180</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>39</v>
+      </c>
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" t="s">
+        <v>180</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>44</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>30</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>366</v>
+      </c>
+      <c r="D70" t="s">
+        <v>374</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>42</v>
+      </c>
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" t="s">
+        <v>334</v>
+      </c>
+      <c r="D73" t="s">
+        <v>181</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" t="s">
+        <v>334</v>
+      </c>
+      <c r="D74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>41</v>
+      </c>
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" t="s">
+        <v>367</v>
+      </c>
+      <c r="D75" t="s">
+        <v>376</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" t="s">
+        <v>367</v>
+      </c>
+      <c r="D76" t="s">
+        <v>376</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G79"/>

--- a/output/bombs_bets.xlsx
+++ b/output/bombs_bets.xlsx
@@ -18,13 +18,17 @@
     <sheet name="9" sheetId="9" r:id="rId9"/>
     <sheet name="10" sheetId="10" r:id="rId10"/>
     <sheet name="11" sheetId="11" r:id="rId11"/>
+    <sheet name="12" sheetId="12" r:id="rId12"/>
+    <sheet name="13" sheetId="13" r:id="rId13"/>
+    <sheet name="14" sheetId="14" r:id="rId14"/>
+    <sheet name="15" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="430">
   <si>
     <t>Name</t>
   </si>
@@ -1155,6 +1159,165 @@
   </si>
   <si>
     <t>селтик</t>
+  </si>
+  <si>
+    <t>боуден</t>
+  </si>
+  <si>
+    <t>гуири</t>
+  </si>
+  <si>
+    <t>деспотович</t>
+  </si>
+  <si>
+    <t>кварацхелия</t>
+  </si>
+  <si>
+    <t>клаусс</t>
+  </si>
+  <si>
+    <t>коло-муани</t>
+  </si>
+  <si>
+    <t>крузе</t>
+  </si>
+  <si>
+    <t>макаров</t>
+  </si>
+  <si>
+    <t>мозес</t>
+  </si>
+  <si>
+    <t>мюллер</t>
+  </si>
+  <si>
+    <t>нессери</t>
+  </si>
+  <si>
+    <t>нкунку</t>
+  </si>
+  <si>
+    <t>сане</t>
+  </si>
+  <si>
+    <t>серлот</t>
+  </si>
+  <si>
+    <t>шомуродов</t>
+  </si>
+  <si>
+    <t>яремчук</t>
+  </si>
+  <si>
+    <t>рубин</t>
+  </si>
+  <si>
+    <t>стандард</t>
+  </si>
+  <si>
+    <t>нант</t>
+  </si>
+  <si>
+    <t>унион берлин</t>
+  </si>
+  <si>
+    <t>лейпциг</t>
+  </si>
+  <si>
+    <t>гент</t>
+  </si>
+  <si>
+    <t>горецка</t>
+  </si>
+  <si>
+    <t>менди</t>
+  </si>
+  <si>
+    <t>катерин</t>
+  </si>
+  <si>
+    <t>бергейс</t>
+  </si>
+  <si>
+    <t>дембеле</t>
+  </si>
+  <si>
+    <t>диаби</t>
+  </si>
+  <si>
+    <t>калверт-льюин</t>
+  </si>
+  <si>
+    <t>камано</t>
+  </si>
+  <si>
+    <t>керк</t>
+  </si>
+  <si>
+    <t>костич</t>
+  </si>
+  <si>
+    <t>лакруа</t>
+  </si>
+  <si>
+    <t>мавидиди</t>
+  </si>
+  <si>
+    <t>ришарлисон</t>
+  </si>
+  <si>
+    <t>троссард</t>
+  </si>
+  <si>
+    <t>узлбек</t>
+  </si>
+  <si>
+    <t>фейеноорд</t>
+  </si>
+  <si>
+    <t>эвертон</t>
+  </si>
+  <si>
+    <t>локомотив</t>
+  </si>
+  <si>
+    <t>аубамеянг</t>
+  </si>
+  <si>
+    <t>гринвуд</t>
+  </si>
+  <si>
+    <t>ди мария</t>
+  </si>
+  <si>
+    <t>киммих</t>
+  </si>
+  <si>
+    <t>оливейра</t>
+  </si>
+  <si>
+    <t>пелегрини</t>
+  </si>
+  <si>
+    <t>пепе</t>
+  </si>
+  <si>
+    <t>погба</t>
+  </si>
+  <si>
+    <t>пулишич</t>
+  </si>
+  <si>
+    <t>фабиньо</t>
+  </si>
+  <si>
+    <t>холеш</t>
+  </si>
+  <si>
+    <t>шупо-мотин</t>
+  </si>
+  <si>
+    <t>боруссия</t>
   </si>
 </sst>
 </file>
@@ -6899,6 +7062,6831 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" t="s">
+        <v>372</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D10" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D12" t="s">
+        <v>372</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" t="s">
+        <v>393</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>379</v>
+      </c>
+      <c r="D14" t="s">
+        <v>393</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D15" t="s">
+        <v>393</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" t="s">
+        <v>340</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" t="s">
+        <v>300</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>380</v>
+      </c>
+      <c r="D24" t="s">
+        <v>393</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D25" t="s">
+        <v>393</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>381</v>
+      </c>
+      <c r="D26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>382</v>
+      </c>
+      <c r="D27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>383</v>
+      </c>
+      <c r="D28" t="s">
+        <v>396</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>383</v>
+      </c>
+      <c r="D29" t="s">
+        <v>396</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>383</v>
+      </c>
+      <c r="D30" t="s">
+        <v>396</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>383</v>
+      </c>
+      <c r="D31" t="s">
+        <v>396</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>383</v>
+      </c>
+      <c r="D32" t="s">
+        <v>396</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>383</v>
+      </c>
+      <c r="D33" t="s">
+        <v>396</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>361</v>
+      </c>
+      <c r="D34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>361</v>
+      </c>
+      <c r="D35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>361</v>
+      </c>
+      <c r="D36" t="s">
+        <v>374</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>361</v>
+      </c>
+      <c r="D37" t="s">
+        <v>374</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>384</v>
+      </c>
+      <c r="D40" t="s">
+        <v>393</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>385</v>
+      </c>
+      <c r="D41" t="s">
+        <v>395</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" t="s">
+        <v>253</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" t="s">
+        <v>253</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" t="s">
+        <v>253</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" t="s">
+        <v>253</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" t="s">
+        <v>253</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>386</v>
+      </c>
+      <c r="D50" t="s">
+        <v>251</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>386</v>
+      </c>
+      <c r="D51" t="s">
+        <v>251</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>387</v>
+      </c>
+      <c r="D53" t="s">
+        <v>178</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
+        <v>388</v>
+      </c>
+      <c r="D54" t="s">
+        <v>397</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" t="s">
+        <v>181</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>45</v>
+      </c>
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" t="s">
+        <v>389</v>
+      </c>
+      <c r="D61" t="s">
+        <v>251</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" t="s">
+        <v>390</v>
+      </c>
+      <c r="D62" t="s">
+        <v>169</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>49</v>
+      </c>
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>40</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" t="s">
+        <v>366</v>
+      </c>
+      <c r="D65" t="s">
+        <v>374</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" t="s">
+        <v>366</v>
+      </c>
+      <c r="D66" t="s">
+        <v>374</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>58</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" t="s">
+        <v>252</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>62</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>37</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>243</v>
+      </c>
+      <c r="D69" t="s">
+        <v>252</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" t="s">
+        <v>243</v>
+      </c>
+      <c r="D70" t="s">
+        <v>252</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>43</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" t="s">
+        <v>243</v>
+      </c>
+      <c r="D71" t="s">
+        <v>252</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" t="s">
+        <v>252</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" t="s">
+        <v>243</v>
+      </c>
+      <c r="D73" t="s">
+        <v>252</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" t="s">
+        <v>243</v>
+      </c>
+      <c r="D74" t="s">
+        <v>252</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>386</v>
+      </c>
+      <c r="D75" t="s">
+        <v>251</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" t="s">
+        <v>391</v>
+      </c>
+      <c r="D77" t="s">
+        <v>340</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>64</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>392</v>
+      </c>
+      <c r="D78" t="s">
+        <v>398</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>399</v>
+      </c>
+      <c r="D10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>399</v>
+      </c>
+      <c r="D11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>269</v>
+      </c>
+      <c r="D29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D32" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" t="s">
+        <v>248</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" t="s">
+        <v>248</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" t="s">
+        <v>179</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>400</v>
+      </c>
+      <c r="D41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>400</v>
+      </c>
+      <c r="D42" t="s">
+        <v>247</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>386</v>
+      </c>
+      <c r="D44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>69</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>386</v>
+      </c>
+      <c r="D45" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>386</v>
+      </c>
+      <c r="D46" t="s">
+        <v>251</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>33</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" t="s">
+        <v>177</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>265</v>
+      </c>
+      <c r="D54" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>43</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>265</v>
+      </c>
+      <c r="D55" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>48</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>21</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>25</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>35</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" t="s">
+        <v>183</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" t="s">
+        <v>183</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" t="s">
+        <v>183</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" t="s">
+        <v>401</v>
+      </c>
+      <c r="D69" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>37</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" t="s">
+        <v>177</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71" t="s">
+        <v>182</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" t="s">
+        <v>182</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" t="s">
+        <v>182</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>34</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>32</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" t="s">
+        <v>182</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" t="s">
+        <v>414</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D8" t="s">
+        <v>414</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D9" t="s">
+        <v>414</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>403</v>
+      </c>
+      <c r="D17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>379</v>
+      </c>
+      <c r="D18" t="s">
+        <v>393</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>404</v>
+      </c>
+      <c r="D19" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>405</v>
+      </c>
+      <c r="D20" t="s">
+        <v>415</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>405</v>
+      </c>
+      <c r="D21" t="s">
+        <v>415</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D22" t="s">
+        <v>416</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>380</v>
+      </c>
+      <c r="D23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>407</v>
+      </c>
+      <c r="D24" t="s">
+        <v>338</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>408</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>409</v>
+      </c>
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>286</v>
+      </c>
+      <c r="D29" t="s">
+        <v>301</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>361</v>
+      </c>
+      <c r="D30" t="s">
+        <v>374</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>361</v>
+      </c>
+      <c r="D31" t="s">
+        <v>374</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>361</v>
+      </c>
+      <c r="D32" t="s">
+        <v>374</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>410</v>
+      </c>
+      <c r="D33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>410</v>
+      </c>
+      <c r="D34" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>328</v>
+      </c>
+      <c r="D35" t="s">
+        <v>338</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>71</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>290</v>
+      </c>
+      <c r="D45" t="s">
+        <v>301</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>290</v>
+      </c>
+      <c r="D46" t="s">
+        <v>301</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>411</v>
+      </c>
+      <c r="D47" t="s">
+        <v>415</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>411</v>
+      </c>
+      <c r="D48" t="s">
+        <v>415</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>331</v>
+      </c>
+      <c r="D61" t="s">
+        <v>301</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>331</v>
+      </c>
+      <c r="D62" t="s">
+        <v>301</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>331</v>
+      </c>
+      <c r="D63" t="s">
+        <v>301</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>331</v>
+      </c>
+      <c r="D64" t="s">
+        <v>301</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>33</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" t="s">
+        <v>217</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>26</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" t="s">
+        <v>131</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" t="s">
+        <v>412</v>
+      </c>
+      <c r="D67" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>54</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>413</v>
+      </c>
+      <c r="D68" t="s">
+        <v>124</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>48</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>51</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" t="s">
+        <v>177</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>53</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>418</v>
+      </c>
+      <c r="D10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>418</v>
+      </c>
+      <c r="D11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>419</v>
+      </c>
+      <c r="D12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>420</v>
+      </c>
+      <c r="D16" t="s">
+        <v>251</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>259</v>
+      </c>
+      <c r="D22" t="s">
+        <v>248</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D23" t="s">
+        <v>248</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" t="s">
+        <v>253</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" t="s">
+        <v>253</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" t="s">
+        <v>253</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" t="s">
+        <v>253</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" t="s">
+        <v>253</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" t="s">
+        <v>253</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>386</v>
+      </c>
+      <c r="D40" t="s">
+        <v>251</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>386</v>
+      </c>
+      <c r="D41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>386</v>
+      </c>
+      <c r="D42" t="s">
+        <v>251</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D43" t="s">
+        <v>251</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>65</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>386</v>
+      </c>
+      <c r="D44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" t="s">
+        <v>421</v>
+      </c>
+      <c r="D47" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>422</v>
+      </c>
+      <c r="D48" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>423</v>
+      </c>
+      <c r="D49" t="s">
+        <v>181</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>424</v>
+      </c>
+      <c r="D50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>425</v>
+      </c>
+      <c r="D51" t="s">
+        <v>248</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>425</v>
+      </c>
+      <c r="D52" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>32</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>46</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>265</v>
+      </c>
+      <c r="D54" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>310</v>
+      </c>
+      <c r="D55" t="s">
+        <v>314</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>44</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
+        <v>426</v>
+      </c>
+      <c r="D59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>50</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" t="s">
+        <v>177</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>244</v>
+      </c>
+      <c r="D65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>49</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>244</v>
+      </c>
+      <c r="D66" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>53</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>244</v>
+      </c>
+      <c r="D67" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>48</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" t="s">
+        <v>429</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>427</v>
+      </c>
+      <c r="D69" t="s">
+        <v>314</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>21</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" t="s">
+        <v>428</v>
+      </c>
+      <c r="D70" t="s">
+        <v>251</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>36</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" t="s">
+        <v>428</v>
+      </c>
+      <c r="D71" t="s">
+        <v>251</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G79"/>

--- a/output/bombs_bets.xlsx
+++ b/output/bombs_bets.xlsx
@@ -22,13 +22,18 @@
     <sheet name="13" sheetId="13" r:id="rId13"/>
     <sheet name="14" sheetId="14" r:id="rId14"/>
     <sheet name="15" sheetId="15" r:id="rId15"/>
+    <sheet name="16" sheetId="16" r:id="rId16"/>
+    <sheet name="17" sheetId="17" r:id="rId17"/>
+    <sheet name="18" sheetId="18" r:id="rId18"/>
+    <sheet name="19" sheetId="19" r:id="rId19"/>
+    <sheet name="20" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4569" uniqueCount="508">
   <si>
     <t>Name</t>
   </si>
@@ -1318,6 +1323,240 @@
   </si>
   <si>
     <t>боруссия</t>
+  </si>
+  <si>
+    <t>баба</t>
+  </si>
+  <si>
+    <t>динь</t>
+  </si>
+  <si>
+    <t>дэвис</t>
+  </si>
+  <si>
+    <t>запата</t>
+  </si>
+  <si>
+    <t>имери</t>
+  </si>
+  <si>
+    <t>кией</t>
+  </si>
+  <si>
+    <t>кока</t>
+  </si>
+  <si>
+    <t>мораес</t>
+  </si>
+  <si>
+    <t>пукай</t>
+  </si>
+  <si>
+    <t>свидерски</t>
+  </si>
+  <si>
+    <t>соломон</t>
+  </si>
+  <si>
+    <t>шупо-мотинг</t>
+  </si>
+  <si>
+    <t>эль-араби</t>
+  </si>
+  <si>
+    <t>паок</t>
+  </si>
+  <si>
+    <t>динамо</t>
+  </si>
+  <si>
+    <t>серветт</t>
+  </si>
+  <si>
+    <t>сосьедад</t>
+  </si>
+  <si>
+    <t>олимпиакос</t>
+  </si>
+  <si>
+    <t>шахтер</t>
+  </si>
+  <si>
+    <t>беллингхем</t>
+  </si>
+  <si>
+    <t>вишча</t>
+  </si>
+  <si>
+    <t>гонсалвеш</t>
+  </si>
+  <si>
+    <t>давидсон</t>
+  </si>
+  <si>
+    <t>делор</t>
+  </si>
+  <si>
+    <t>дольберг</t>
+  </si>
+  <si>
+    <t>жулиано</t>
+  </si>
+  <si>
+    <t>йевтич</t>
+  </si>
+  <si>
+    <t>какере</t>
+  </si>
+  <si>
+    <t>пектемек</t>
+  </si>
+  <si>
+    <t>раттер</t>
+  </si>
+  <si>
+    <t>спорар</t>
+  </si>
+  <si>
+    <t>шадли</t>
+  </si>
+  <si>
+    <t>шаллаи</t>
+  </si>
+  <si>
+    <t>эджуке</t>
+  </si>
+  <si>
+    <t>экамби</t>
+  </si>
+  <si>
+    <t>башакшехир</t>
+  </si>
+  <si>
+    <t>спортинг</t>
+  </si>
+  <si>
+    <t>бен йеддер</t>
+  </si>
+  <si>
+    <t>мостовой</t>
+  </si>
+  <si>
+    <t>решфорд</t>
+  </si>
+  <si>
+    <t>азмун</t>
+  </si>
+  <si>
+    <t>дзюба</t>
+  </si>
+  <si>
+    <t>азар</t>
+  </si>
+  <si>
+    <t>харветц</t>
+  </si>
+  <si>
+    <t>вендел</t>
+  </si>
+  <si>
+    <t>алькантара</t>
+  </si>
+  <si>
+    <t>кавани[2]</t>
+  </si>
+  <si>
+    <t>зенит</t>
+  </si>
+  <si>
+    <t>манчестер</t>
+  </si>
+  <si>
+    <t>смолов</t>
+  </si>
+  <si>
+    <t>бензема[2]</t>
+  </si>
+  <si>
+    <t>крыховяк</t>
+  </si>
+  <si>
+    <t>антонио</t>
+  </si>
+  <si>
+    <t>рамос[2]</t>
+  </si>
+  <si>
+    <t>пайе</t>
+  </si>
+  <si>
+    <t>икарди</t>
+  </si>
+  <si>
+    <t>каземиро</t>
+  </si>
+  <si>
+    <t>тюкавин</t>
+  </si>
+  <si>
+    <t>кимпембе</t>
+  </si>
+  <si>
+    <t>окампос</t>
+  </si>
+  <si>
+    <t>пеллегрини</t>
+  </si>
+  <si>
+    <t>кальвер-льюин</t>
+  </si>
+  <si>
+    <t>вест хем</t>
+  </si>
+  <si>
+    <t>буффон</t>
+  </si>
+  <si>
+    <t>васин</t>
+  </si>
+  <si>
+    <t>ольмо</t>
+  </si>
+  <si>
+    <t>дзагоев</t>
+  </si>
+  <si>
+    <t>диоп</t>
+  </si>
+  <si>
+    <t>ихеиначо</t>
+  </si>
+  <si>
+    <t>кайо</t>
+  </si>
+  <si>
+    <t>лаутаро</t>
+  </si>
+  <si>
+    <t>лесовой</t>
+  </si>
+  <si>
+    <t>полоз</t>
+  </si>
+  <si>
+    <t>ракитич</t>
+  </si>
+  <si>
+    <t>уэлбек</t>
+  </si>
+  <si>
+    <t>форсберг</t>
+  </si>
+  <si>
+    <t>хаверц</t>
+  </si>
+  <si>
+    <t>чалов</t>
   </si>
 </sst>
 </file>
@@ -13887,6 +14126,6463 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>435</v>
+      </c>
+      <c r="D21" t="s">
+        <v>445</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>436</v>
+      </c>
+      <c r="D22" t="s">
+        <v>447</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>383</v>
+      </c>
+      <c r="D23" t="s">
+        <v>396</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" t="s">
+        <v>220</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>437</v>
+      </c>
+      <c r="D35" t="s">
+        <v>448</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>438</v>
+      </c>
+      <c r="D37" t="s">
+        <v>274</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>411</v>
+      </c>
+      <c r="D38" t="s">
+        <v>415</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" t="s">
+        <v>220</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>439</v>
+      </c>
+      <c r="D43" t="s">
+        <v>443</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>439</v>
+      </c>
+      <c r="D44" t="s">
+        <v>443</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>35</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>440</v>
+      </c>
+      <c r="D51" t="s">
+        <v>448</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>206</v>
+      </c>
+      <c r="D52" t="s">
+        <v>217</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" t="s">
+        <v>217</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>38</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" t="s">
+        <v>429</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>441</v>
+      </c>
+      <c r="D55" t="s">
+        <v>251</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>441</v>
+      </c>
+      <c r="D56" t="s">
+        <v>251</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" t="s">
+        <v>441</v>
+      </c>
+      <c r="D57" t="s">
+        <v>251</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>441</v>
+      </c>
+      <c r="D58" t="s">
+        <v>251</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>441</v>
+      </c>
+      <c r="D59" t="s">
+        <v>251</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>42</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>48</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>442</v>
+      </c>
+      <c r="D61" t="s">
+        <v>447</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>442</v>
+      </c>
+      <c r="D62" t="s">
+        <v>447</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>37</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" t="s">
+        <v>178</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>39</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" t="s">
+        <v>178</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" t="s">
+        <v>178</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66" t="s">
+        <v>178</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D67" t="s">
+        <v>251</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D6" t="s">
+        <v>466</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D7" t="s">
+        <v>466</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>451</v>
+      </c>
+      <c r="D8" t="s">
+        <v>466</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>453</v>
+      </c>
+      <c r="D12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D13" t="s">
+        <v>369</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>355</v>
+      </c>
+      <c r="D14" t="s">
+        <v>369</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>355</v>
+      </c>
+      <c r="D15" t="s">
+        <v>369</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>355</v>
+      </c>
+      <c r="D16" t="s">
+        <v>369</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>355</v>
+      </c>
+      <c r="D17" t="s">
+        <v>369</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>355</v>
+      </c>
+      <c r="D18" t="s">
+        <v>369</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>454</v>
+      </c>
+      <c r="D19" t="s">
+        <v>372</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>455</v>
+      </c>
+      <c r="D20" t="s">
+        <v>465</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" t="s">
+        <v>250</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D26" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>233</v>
+      </c>
+      <c r="D27" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>456</v>
+      </c>
+      <c r="D28" t="s">
+        <v>393</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>457</v>
+      </c>
+      <c r="D32" t="s">
+        <v>369</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>325</v>
+      </c>
+      <c r="D33" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>286</v>
+      </c>
+      <c r="D37" t="s">
+        <v>301</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>286</v>
+      </c>
+      <c r="D38" t="s">
+        <v>301</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>327</v>
+      </c>
+      <c r="D39" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>327</v>
+      </c>
+      <c r="D40" t="s">
+        <v>214</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>327</v>
+      </c>
+      <c r="D41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>458</v>
+      </c>
+      <c r="D42" t="s">
+        <v>211</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>458</v>
+      </c>
+      <c r="D43" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>290</v>
+      </c>
+      <c r="D44" t="s">
+        <v>301</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" t="s">
+        <v>290</v>
+      </c>
+      <c r="D45" t="s">
+        <v>301</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>290</v>
+      </c>
+      <c r="D46" t="s">
+        <v>301</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>459</v>
+      </c>
+      <c r="D47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" t="s">
+        <v>214</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" t="s">
+        <v>214</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>69</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>26</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>331</v>
+      </c>
+      <c r="D54" t="s">
+        <v>301</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>331</v>
+      </c>
+      <c r="D55" t="s">
+        <v>301</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>331</v>
+      </c>
+      <c r="D56" t="s">
+        <v>301</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>48</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>331</v>
+      </c>
+      <c r="D57" t="s">
+        <v>301</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>331</v>
+      </c>
+      <c r="D58" t="s">
+        <v>301</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>51</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>331</v>
+      </c>
+      <c r="D59" t="s">
+        <v>301</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" t="s">
+        <v>460</v>
+      </c>
+      <c r="D60" t="s">
+        <v>184</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" t="s">
+        <v>182</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" t="s">
+        <v>182</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" t="s">
+        <v>182</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" t="s">
+        <v>182</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>21</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" t="s">
+        <v>182</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>32</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>461</v>
+      </c>
+      <c r="D70" t="s">
+        <v>465</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>42</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>462</v>
+      </c>
+      <c r="D71" t="s">
+        <v>120</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>463</v>
+      </c>
+      <c r="D72" t="s">
+        <v>277</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" t="s">
+        <v>464</v>
+      </c>
+      <c r="D73" t="s">
+        <v>369</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>467</v>
+      </c>
+      <c r="D14" t="s">
+        <v>337</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>468</v>
+      </c>
+      <c r="D16" t="s">
+        <v>477</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" t="s">
+        <v>247</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" t="s">
+        <v>247</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>469</v>
+      </c>
+      <c r="D25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>470</v>
+      </c>
+      <c r="D26" t="s">
+        <v>477</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>471</v>
+      </c>
+      <c r="D27" t="s">
+        <v>477</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>468</v>
+      </c>
+      <c r="D28" t="s">
+        <v>477</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>472</v>
+      </c>
+      <c r="D29" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>469</v>
+      </c>
+      <c r="D31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>467</v>
+      </c>
+      <c r="D32" t="s">
+        <v>337</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>306</v>
+      </c>
+      <c r="D33" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>470</v>
+      </c>
+      <c r="D35" t="s">
+        <v>477</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>470</v>
+      </c>
+      <c r="D38" t="s">
+        <v>477</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" t="s">
+        <v>247</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>470</v>
+      </c>
+      <c r="D41" t="s">
+        <v>477</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>412</v>
+      </c>
+      <c r="D42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>473</v>
+      </c>
+      <c r="D43" t="s">
+        <v>248</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>424</v>
+      </c>
+      <c r="D45" t="s">
+        <v>478</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" t="s">
+        <v>247</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>306</v>
+      </c>
+      <c r="D49" t="s">
+        <v>247</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>27</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>471</v>
+      </c>
+      <c r="D50" t="s">
+        <v>477</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>85</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>225</v>
+      </c>
+      <c r="D52" t="s">
+        <v>247</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>86</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" t="s">
+        <v>253</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
+        <v>470</v>
+      </c>
+      <c r="D55" t="s">
+        <v>477</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>99</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>355</v>
+      </c>
+      <c r="D56" t="s">
+        <v>369</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>309</v>
+      </c>
+      <c r="D57" t="s">
+        <v>313</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>354</v>
+      </c>
+      <c r="D58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" t="s">
+        <v>175</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>100</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>471</v>
+      </c>
+      <c r="D60" t="s">
+        <v>477</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" t="s">
+        <v>247</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" t="s">
+        <v>172</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" t="s">
+        <v>474</v>
+      </c>
+      <c r="D63" t="s">
+        <v>477</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>102</v>
+      </c>
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" t="s">
+        <v>475</v>
+      </c>
+      <c r="D64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s">
+        <v>467</v>
+      </c>
+      <c r="D65" t="s">
+        <v>337</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>32</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" t="s">
+        <v>471</v>
+      </c>
+      <c r="D66" t="s">
+        <v>477</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>33</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" t="s">
+        <v>354</v>
+      </c>
+      <c r="D67" t="s">
+        <v>371</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>53</v>
+      </c>
+      <c r="B68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" t="s">
+        <v>306</v>
+      </c>
+      <c r="D68" t="s">
+        <v>247</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>88</v>
+      </c>
+      <c r="B69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" t="s">
+        <v>418</v>
+      </c>
+      <c r="D69" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>104</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
+        <v>476</v>
+      </c>
+      <c r="D71" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>19</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" t="s">
+        <v>253</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>479</v>
+      </c>
+      <c r="D4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>479</v>
+      </c>
+      <c r="D7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>480</v>
+      </c>
+      <c r="D8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D9" t="s">
+        <v>416</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>418</v>
+      </c>
+      <c r="D11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>479</v>
+      </c>
+      <c r="D13" t="s">
+        <v>416</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>482</v>
+      </c>
+      <c r="D14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>483</v>
+      </c>
+      <c r="D16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>484</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>485</v>
+      </c>
+      <c r="D21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>406</v>
+      </c>
+      <c r="D23" t="s">
+        <v>416</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>345</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" t="s">
+        <v>277</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>361</v>
+      </c>
+      <c r="D30" t="s">
+        <v>492</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" t="s">
+        <v>253</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>482</v>
+      </c>
+      <c r="D32" t="s">
+        <v>374</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>486</v>
+      </c>
+      <c r="D33" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>362</v>
+      </c>
+      <c r="D34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>472</v>
+      </c>
+      <c r="D35" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>487</v>
+      </c>
+      <c r="D37" t="s">
+        <v>444</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>482</v>
+      </c>
+      <c r="D38" t="s">
+        <v>374</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>481</v>
+      </c>
+      <c r="D40" t="s">
+        <v>416</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>488</v>
+      </c>
+      <c r="D41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>400</v>
+      </c>
+      <c r="D42" t="s">
+        <v>247</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>103</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>479</v>
+      </c>
+      <c r="D44" t="s">
+        <v>416</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" t="s">
+        <v>182</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>481</v>
+      </c>
+      <c r="D46" t="s">
+        <v>416</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>104</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>361</v>
+      </c>
+      <c r="D47" t="s">
+        <v>374</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
+        <v>227</v>
+      </c>
+      <c r="D49" t="s">
+        <v>248</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>86</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>424</v>
+      </c>
+      <c r="D52" t="s">
+        <v>177</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>32</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" t="s">
+        <v>361</v>
+      </c>
+      <c r="D54" t="s">
+        <v>374</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>69</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
+        <v>362</v>
+      </c>
+      <c r="D55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" t="s">
+        <v>247</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>306</v>
+      </c>
+      <c r="D58" t="s">
+        <v>247</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
+        <v>489</v>
+      </c>
+      <c r="D59" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>34</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>51</v>
+      </c>
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" t="s">
+        <v>247</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>88</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" t="s">
+        <v>490</v>
+      </c>
+      <c r="D62" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>15</v>
+      </c>
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>109</v>
+      </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" t="s">
+        <v>253</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>52</v>
+      </c>
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" t="s">
+        <v>231</v>
+      </c>
+      <c r="D65" t="s">
+        <v>248</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
+        <v>491</v>
+      </c>
+      <c r="D66" t="s">
+        <v>415</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>110</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>479</v>
+      </c>
+      <c r="D67" t="s">
+        <v>416</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G79"/>
@@ -15706,6 +22402,1580 @@
         <v>2</v>
       </c>
       <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>451</v>
+      </c>
+      <c r="D11" t="s">
+        <v>466</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>451</v>
+      </c>
+      <c r="D12" t="s">
+        <v>466</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>495</v>
+      </c>
+      <c r="D13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>496</v>
+      </c>
+      <c r="D16" t="s">
+        <v>277</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>497</v>
+      </c>
+      <c r="D17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19" t="s">
+        <v>250</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" t="s">
+        <v>250</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" t="s">
+        <v>250</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D26" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>498</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>499</v>
+      </c>
+      <c r="D29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>500</v>
+      </c>
+      <c r="D31" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>501</v>
+      </c>
+      <c r="D32" t="s">
+        <v>444</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>361</v>
+      </c>
+      <c r="D33" t="s">
+        <v>374</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>361</v>
+      </c>
+      <c r="D34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D35" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>287</v>
+      </c>
+      <c r="D36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>287</v>
+      </c>
+      <c r="D37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>259</v>
+      </c>
+      <c r="D38" t="s">
+        <v>248</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>259</v>
+      </c>
+      <c r="D39" t="s">
+        <v>248</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>259</v>
+      </c>
+      <c r="D40" t="s">
+        <v>248</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>495</v>
+      </c>
+      <c r="D42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>495</v>
+      </c>
+      <c r="D43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>32</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>502</v>
+      </c>
+      <c r="D44" t="s">
+        <v>302</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>425</v>
+      </c>
+      <c r="D45" t="s">
+        <v>248</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
+        <v>425</v>
+      </c>
+      <c r="D46" t="s">
+        <v>248</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>503</v>
+      </c>
+      <c r="D47" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>390</v>
+      </c>
+      <c r="D54" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" t="s">
+        <v>180</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>19</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>46</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>504</v>
+      </c>
+      <c r="D58" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>505</v>
+      </c>
+      <c r="D60" t="s">
+        <v>169</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>506</v>
+      </c>
+      <c r="D61" t="s">
+        <v>248</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>506</v>
+      </c>
+      <c r="D62" t="s">
+        <v>248</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>506</v>
+      </c>
+      <c r="D63" t="s">
+        <v>248</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>40</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>507</v>
+      </c>
+      <c r="D64" t="s">
+        <v>277</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>54</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>415</v>
+      </c>
+      <c r="D65" t="s">
+        <v>180</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66" t="s">
+        <v>178</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>48</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" t="s">
+        <v>178</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
         <v>0</v>
       </c>
     </row>

--- a/output/bombs_bets.xlsx
+++ b/output/bombs_bets.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\euroleague\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9851835-1442-4DC9-8953-7D1F4C07ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="10836" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -17,13 +23,14 @@
     <sheet name="8" sheetId="8" r:id="rId8"/>
     <sheet name="9" sheetId="9" r:id="rId9"/>
     <sheet name="10" sheetId="10" r:id="rId10"/>
+    <sheet name="11" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="313">
   <si>
     <t>Scorer</t>
   </si>
@@ -893,13 +900,82 @@
   </si>
   <si>
     <t>базель</t>
+  </si>
+  <si>
+    <t>балотелли</t>
+  </si>
+  <si>
+    <t>озил</t>
+  </si>
+  <si>
+    <t>чикаллеши</t>
+  </si>
+  <si>
+    <t>эль-хадди</t>
+  </si>
+  <si>
+    <t>бла</t>
+  </si>
+  <si>
+    <t>зайц</t>
+  </si>
+  <si>
+    <t>ундер</t>
+  </si>
+  <si>
+    <t>ляказетт</t>
+  </si>
+  <si>
+    <t>винд</t>
+  </si>
+  <si>
+    <t>сака</t>
+  </si>
+  <si>
+    <t>изидор</t>
+  </si>
+  <si>
+    <t>коло-муани</t>
+  </si>
+  <si>
+    <t>смит-роу</t>
+  </si>
+  <si>
+    <t>аларио</t>
+  </si>
+  <si>
+    <t>уткин</t>
+  </si>
+  <si>
+    <t>ассомбалонга</t>
+  </si>
+  <si>
+    <t>адана демирспор</t>
+  </si>
+  <si>
+    <t>коньяспор</t>
+  </si>
+  <si>
+    <t>нант</t>
+  </si>
+  <si>
+    <t>арсенал</t>
+  </si>
+  <si>
+    <t>вольфсбург</t>
+  </si>
+  <si>
+    <t>ахмат</t>
+  </si>
+  <si>
+    <t>адана</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,17 +1034,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1006,9 +1090,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1040,9 +1124,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1074,9 +1176,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1249,14 +1369,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1276,7 +1396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1296,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1316,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1336,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1356,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1376,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1396,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1416,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1436,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1456,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1476,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1496,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1536,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1556,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1576,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1596,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1616,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1636,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1656,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1676,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1696,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1716,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1736,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1756,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -1776,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -1796,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1816,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1836,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -1876,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -1896,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -1916,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -1936,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -1956,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -1976,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1996,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -2016,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -2036,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -2056,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -2076,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -2096,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
@@ -2116,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
@@ -2136,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>15</v>
       </c>
@@ -2156,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
@@ -2176,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -2196,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>18</v>
       </c>
@@ -2216,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -2236,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
@@ -2256,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -2276,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -2302,14 +2422,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2329,7 +2449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2349,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -2369,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2389,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
@@ -2409,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2429,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2449,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
@@ -2469,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -2489,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>64</v>
       </c>
@@ -2529,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2549,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2569,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -2589,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2609,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2629,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2649,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -2669,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
@@ -2689,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2709,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -2729,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -2749,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -2769,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -2789,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -2809,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -2829,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -2849,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -2869,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
@@ -2889,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -2909,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -2929,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -2949,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
@@ -2969,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2989,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
@@ -3009,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -3029,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -3049,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -3069,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -3089,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -3109,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
@@ -3129,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -3149,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>17</v>
       </c>
@@ -3169,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
@@ -3189,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
@@ -3209,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -3229,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
@@ -3249,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>17</v>
       </c>
@@ -3269,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
@@ -3289,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -3309,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -3329,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -3349,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -3369,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
@@ -3386,6 +3506,1001 @@
         <v>0</v>
       </c>
       <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" t="s">
+        <v>309</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" t="s">
+        <v>310</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" t="s">
+        <v>309</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>297</v>
+      </c>
+      <c r="C27" t="s">
+        <v>309</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>300</v>
+      </c>
+      <c r="C31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>301</v>
+      </c>
+      <c r="C32" t="s">
+        <v>308</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>302</v>
+      </c>
+      <c r="C35" t="s">
+        <v>309</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" t="s">
+        <v>232</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>303</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>291</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>304</v>
+      </c>
+      <c r="C46" t="s">
+        <v>311</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>305</v>
+      </c>
+      <c r="C47" t="s">
+        <v>312</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>301</v>
+      </c>
+      <c r="C48" t="s">
+        <v>308</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" t="s">
+        <v>205</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
         <v>0</v>
       </c>
     </row>
@@ -3395,14 +4510,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3422,7 +4537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3442,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -3462,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -3482,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -3502,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3522,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -3542,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
@@ -3562,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -3582,7 +4697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3602,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -3622,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -3642,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -3662,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -3682,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -3702,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -3722,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -3742,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -3762,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -3782,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -3802,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -3822,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -3842,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -3862,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -3882,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -3902,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -3922,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -3942,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -3962,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -3982,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
@@ -4002,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -4022,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -4042,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -4062,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -4082,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -4102,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
@@ -4122,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -4142,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>66</v>
       </c>
@@ -4162,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>17</v>
       </c>
@@ -4182,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -4202,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -4222,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
@@ -4242,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
@@ -4262,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -4282,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -4302,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -4322,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>65</v>
       </c>
@@ -4342,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -4362,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -4382,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>15</v>
       </c>
@@ -4402,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -4422,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
@@ -4442,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -4462,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -4482,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
@@ -4502,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>12</v>
       </c>
@@ -4528,14 +5643,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4555,7 +5670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -4575,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -4595,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -4615,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4635,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4655,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -4675,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -4695,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -4715,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -4735,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -4755,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -4775,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -4795,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -4815,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -4835,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -4855,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -4875,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -4895,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -4915,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -4935,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -4955,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
@@ -4975,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -4995,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -5015,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -5035,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -5055,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -5075,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -5095,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
@@ -5115,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -5135,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -5155,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
@@ -5175,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
@@ -5195,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -5215,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -5235,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
@@ -5255,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -5275,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -5295,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -5315,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -5335,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
@@ -5355,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
@@ -5375,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -5395,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>65</v>
       </c>
@@ -5415,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -5435,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>17</v>
       </c>
@@ -5455,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -5475,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -5495,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -5515,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -5535,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
@@ -5555,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
@@ -5575,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -5595,7 +6710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -5615,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -5635,7 +6750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
@@ -5655,7 +6770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -5675,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>20</v>
       </c>
@@ -5695,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -5715,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>20</v>
       </c>
@@ -5741,14 +6856,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5768,7 +6883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -5788,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -5808,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -5828,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -5848,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -5868,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -5888,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -5908,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -5928,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -5948,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -5968,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -5988,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -6008,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -6028,7 +7143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -6048,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -6068,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -6088,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -6108,7 +7223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -6128,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -6148,7 +7263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -6168,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -6188,7 +7303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -6208,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -6228,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -6248,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
@@ -6268,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -6288,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -6308,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -6328,7 +7443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -6348,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -6368,7 +7483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -6388,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -6408,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -6428,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -6448,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
@@ -6468,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -6488,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
@@ -6508,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -6528,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -6548,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -6568,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -6588,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
@@ -6608,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
@@ -6628,7 +7743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
@@ -6648,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
@@ -6668,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -6688,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -6708,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -6728,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>15</v>
       </c>
@@ -6748,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
@@ -6768,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
@@ -6788,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
@@ -6808,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
@@ -6828,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
@@ -6854,14 +7969,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -6881,7 +7996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -6901,7 +8016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -6921,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -6941,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -6961,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -6981,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -7001,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -7021,7 +8136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -7041,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -7061,7 +8176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -7081,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -7101,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -7121,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -7141,7 +8256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -7161,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -7181,7 +8296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -7201,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -7221,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -7241,7 +8356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -7261,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -7281,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -7301,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -7321,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
@@ -7341,7 +8456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -7361,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -7381,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -7401,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -7421,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -7441,7 +8556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
@@ -7461,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
@@ -7481,7 +8596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -7501,7 +8616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -7521,7 +8636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -7541,7 +8656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -7561,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -7581,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -7601,7 +8716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -7621,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -7641,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -7661,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -7681,7 +8796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -7701,7 +8816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -7721,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
@@ -7741,7 +8856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -7761,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -7781,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -7801,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
@@ -7821,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>11</v>
       </c>
@@ -7841,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -7861,7 +8976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
@@ -7881,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -7901,7 +9016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -7921,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -7941,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
@@ -7961,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
@@ -7981,7 +9096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>64</v>
       </c>
@@ -8001,7 +9116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>17</v>
       </c>
@@ -8027,14 +9142,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -8054,7 +9169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -8074,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -8094,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -8114,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -8134,7 +9249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -8154,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -8174,7 +9289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -8194,7 +9309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -8214,7 +9329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -8234,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -8254,7 +9369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -8274,7 +9389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -8294,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -8314,7 +9429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -8334,7 +9449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -8354,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -8374,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -8394,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -8414,7 +9529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -8434,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -8454,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
@@ -8474,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -8494,7 +9609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -8514,7 +9629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -8534,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -8554,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
@@ -8574,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -8594,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -8614,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -8634,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -8654,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -8674,7 +9789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -8694,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -8714,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
@@ -8734,7 +9849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -8754,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
@@ -8774,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -8794,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -8814,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -8834,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
@@ -8854,7 +9969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -8874,7 +9989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -8894,7 +10009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
@@ -8914,7 +10029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
@@ -8934,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>22</v>
       </c>
@@ -8954,7 +10069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -8974,7 +10089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>18</v>
       </c>
@@ -8994,7 +10109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
@@ -9014,7 +10129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -9034,7 +10149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
@@ -9054,7 +10169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
@@ -9074,7 +10189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -9100,14 +10215,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -9127,7 +10242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -9147,7 +10262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -9167,7 +10282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -9187,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
@@ -9207,7 +10322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -9227,7 +10342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -9247,7 +10362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
@@ -9267,7 +10382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -9287,7 +10402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -9307,7 +10422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -9327,7 +10442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -9347,7 +10462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -9367,7 +10482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -9387,7 +10502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -9407,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -9427,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -9447,7 +10562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -9467,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -9487,7 +10602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -9507,7 +10622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -9527,7 +10642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -9547,7 +10662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -9567,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -9587,7 +10702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -9607,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -9627,7 +10742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -9647,7 +10762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -9667,7 +10782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -9687,7 +10802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -9707,7 +10822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -9727,7 +10842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -9747,7 +10862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -9767,7 +10882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -9787,7 +10902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -9807,7 +10922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -9827,7 +10942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
@@ -9847,7 +10962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -9867,7 +10982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -9887,7 +11002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
@@ -9907,7 +11022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -9927,7 +11042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -9947,7 +11062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -9967,7 +11082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>15</v>
       </c>
@@ -9987,7 +11102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
@@ -10007,7 +11122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -10027,7 +11142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -10047,7 +11162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
@@ -10067,7 +11182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -10087,7 +11202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
@@ -10107,7 +11222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
@@ -10127,7 +11242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -10147,7 +11262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -10167,7 +11282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>20</v>
       </c>
@@ -10193,14 +11308,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -10220,7 +11335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -10240,7 +11355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -10260,7 +11375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -10280,7 +11395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -10300,7 +11415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -10320,7 +11435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -10340,7 +11455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -10360,7 +11475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -10380,7 +11495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -10400,7 +11515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -10420,7 +11535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -10440,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -10460,7 +11575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -10480,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -10500,7 +11615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
@@ -10520,7 +11635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -10540,7 +11655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -10560,7 +11675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -10580,7 +11695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -10600,7 +11715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -10620,7 +11735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -10640,7 +11755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -10660,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -10680,7 +11795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -10700,7 +11815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -10720,7 +11835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -10740,7 +11855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -10760,7 +11875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -10780,7 +11895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -10800,7 +11915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
@@ -10820,7 +11935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -10840,7 +11955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -10860,7 +11975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -10880,7 +11995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -10900,7 +12015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -10920,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -10940,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -10960,7 +12075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -10980,7 +12095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
@@ -11000,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -11020,7 +12135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -11040,7 +12155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -11060,7 +12175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>65</v>
       </c>
@@ -11080,7 +12195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -11100,7 +12215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -11120,7 +12235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
@@ -11140,7 +12255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
@@ -11160,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -11180,7 +12295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -11200,7 +12315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
@@ -11220,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>19</v>
       </c>
@@ -11240,7 +12355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>15</v>
       </c>
@@ -11266,14 +12381,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -11293,7 +12408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -11313,7 +12428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -11333,7 +12448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -11353,7 +12468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -11373,7 +12488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -11393,7 +12508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -11413,7 +12528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -11433,7 +12548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -11453,7 +12568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -11473,7 +12588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -11493,7 +12608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -11513,7 +12628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -11533,7 +12648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -11553,7 +12668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -11573,7 +12688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -11593,7 +12708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -11613,7 +12728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -11633,7 +12748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -11653,7 +12768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -11673,7 +12788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -11693,7 +12808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -11713,7 +12828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -11733,7 +12848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -11753,7 +12868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -11773,7 +12888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -11793,7 +12908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -11813,7 +12928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -11833,7 +12948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -11853,7 +12968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -11873,7 +12988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -11893,7 +13008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -11913,7 +13028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -11933,7 +13048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -11953,7 +13068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
@@ -11973,7 +13088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
@@ -11993,7 +13108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -12013,7 +13128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -12033,7 +13148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -12053,7 +13168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>65</v>
       </c>
@@ -12073,7 +13188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
@@ -12093,7 +13208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
@@ -12113,7 +13228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -12133,7 +13248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -12153,7 +13268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
@@ -12173,7 +13288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
@@ -12193,7 +13308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -12213,7 +13328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
@@ -12233,7 +13348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
@@ -12253,7 +13368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
@@ -12273,7 +13388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
@@ -12293,7 +13408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -12313,7 +13428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>66</v>
       </c>
@@ -12333,7 +13448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>18</v>
       </c>

--- a/output/bombs_bets.xlsx
+++ b/output/bombs_bets.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EAE04F-CAC1-4904-81DA-7A1B6A4C9357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="600" yWindow="1020" windowWidth="12915" windowHeight="14400" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -28,7 +34,7 @@
     <sheet name="19" sheetId="19" r:id="rId19"/>
     <sheet name="20" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1334,8 +1340,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1398,6 +1404,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1444,7 +1458,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1476,9 +1490,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1510,6 +1542,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1685,14 +1735,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1712,7 +1764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1732,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1752,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1772,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1792,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1812,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1832,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1852,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1872,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1892,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1912,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1932,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1952,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1972,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1992,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2012,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2032,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -2052,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -2072,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -2092,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -2112,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2132,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -2152,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -2172,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -2192,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -2212,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -2232,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -2252,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -2272,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -2292,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -2312,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -2332,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -2352,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -2372,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -2392,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -2412,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -2432,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -2452,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -2472,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -2492,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -2512,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -2532,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
@@ -2552,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
@@ -2572,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>15</v>
       </c>
@@ -2592,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
@@ -2612,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -2632,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>18</v>
       </c>
@@ -2652,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -2672,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
@@ -2692,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -2712,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -2738,14 +2790,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2765,7 +2817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2785,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -2805,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2825,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
@@ -2845,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2865,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2885,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
@@ -2905,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -2925,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2945,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>64</v>
       </c>
@@ -2965,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2985,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -3005,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -3025,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3045,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -3065,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -3085,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -3105,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
@@ -3125,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -3145,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -3165,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -3185,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -3205,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -3225,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -3245,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -3265,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -3285,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -3305,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
@@ -3325,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -3345,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -3365,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -3385,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
@@ -3405,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -3425,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
@@ -3445,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -3465,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -3485,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -3505,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -3525,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -3545,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
@@ -3565,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -3585,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>17</v>
       </c>
@@ -3605,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
@@ -3625,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
@@ -3645,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -3665,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
@@ -3685,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>17</v>
       </c>
@@ -3705,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
@@ -3725,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -3745,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -3765,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -3785,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -3805,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
@@ -3831,14 +3883,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3858,7 +3910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -3878,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -3898,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -3918,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -3938,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3958,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -3978,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -3998,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -4018,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -4038,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -4058,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -4078,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -4098,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -4118,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -4138,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -4158,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -4178,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -4198,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -4218,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -4238,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
@@ -4258,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -4278,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -4298,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -4318,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -4338,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -4358,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -4378,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -4398,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -4418,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -4438,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -4458,7 +4510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -4478,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
@@ -4498,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -4518,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -4538,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -4558,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -4578,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -4598,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
@@ -4618,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -4638,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -4658,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>17</v>
       </c>
@@ -4678,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>17</v>
       </c>
@@ -4698,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -4718,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -4738,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -4758,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
@@ -4778,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
@@ -4798,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
@@ -4824,14 +4876,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4851,7 +4903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -4871,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4891,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -4911,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -4931,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -4951,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -4971,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
@@ -4991,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -5011,7 +5063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -5031,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -5051,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -5071,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -5091,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -5111,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -5131,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -5151,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -5171,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -5191,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -5211,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -5231,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -5251,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -5271,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -5291,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -5311,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -5331,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -5351,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
@@ -5371,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -5391,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
@@ -5411,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -5431,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -5451,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -5471,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -5491,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
@@ -5511,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
@@ -5531,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -5551,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
@@ -5571,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -5591,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -5611,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
@@ -5631,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -5651,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
@@ -5671,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -5691,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -5711,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -5731,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -5751,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
@@ -5771,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -5791,7 +5843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
@@ -5811,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -5831,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -5851,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>15</v>
       </c>
@@ -5877,14 +5929,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5904,7 +5956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -5924,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -5944,7 +5996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -5964,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -5984,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -6004,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -6024,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -6044,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -6064,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -6084,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -6104,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -6124,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -6144,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -6164,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -6184,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -6204,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -6224,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -6244,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -6264,7 +6316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -6284,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -6304,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -6324,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -6344,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
@@ -6364,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -6384,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -6404,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -6424,7 +6476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -6444,7 +6496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -6464,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -6484,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
@@ -6504,7 +6556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -6524,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -6544,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -6564,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -6584,7 +6636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
@@ -6604,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -6624,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -6644,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -6664,7 +6716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -6684,7 +6736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
@@ -6704,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -6724,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>17</v>
       </c>
@@ -6744,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
@@ -6764,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
@@ -6784,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -6804,7 +6856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -6824,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -6844,7 +6896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
@@ -6864,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>14</v>
       </c>
@@ -6884,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -6904,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -6924,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -6944,7 +6996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>18</v>
       </c>
@@ -6970,14 +7022,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -6997,7 +7049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -7017,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -7037,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -7057,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -7077,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -7097,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -7117,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -7137,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -7157,7 +7209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -7177,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -7197,7 +7249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -7217,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -7237,7 +7289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -7257,7 +7309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -7277,7 +7329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -7297,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -7317,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -7337,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -7357,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -7377,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -7397,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -7417,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -7437,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
@@ -7457,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -7477,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -7497,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
@@ -7517,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -7537,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -7557,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -7577,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -7597,7 +7649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
@@ -7617,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -7637,7 +7689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -7657,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -7677,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -7697,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -7717,7 +7769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -7737,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -7757,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -7777,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
@@ -7797,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -7817,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -7837,7 +7889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -7857,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>64</v>
       </c>
@@ -7877,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
@@ -7897,7 +7949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -7917,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>17</v>
       </c>
@@ -7937,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
@@ -7957,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
@@ -7977,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
@@ -8003,14 +8055,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -8030,7 +8082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -8050,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
@@ -8070,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -8090,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -8110,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -8130,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -8150,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -8170,7 +8222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>65</v>
       </c>
@@ -8190,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -8210,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -8230,7 +8282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -8250,7 +8302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -8270,7 +8322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -8290,7 +8342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -8310,7 +8362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -8330,7 +8382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -8350,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -8370,7 +8422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -8390,7 +8442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -8410,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -8430,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -8450,7 +8502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -8470,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -8490,7 +8542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -8510,7 +8562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>64</v>
       </c>
@@ -8530,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -8550,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -8570,7 +8622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -8590,7 +8642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -8610,7 +8662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -8630,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -8650,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
@@ -8670,7 +8722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -8690,7 +8742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -8710,7 +8762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -8730,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -8750,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -8770,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -8790,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -8810,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -8830,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -8850,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -8870,7 +8922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -8890,7 +8942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -8910,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
@@ -8930,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -8950,7 +9002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>65</v>
       </c>
@@ -8970,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>64</v>
       </c>
@@ -8990,7 +9042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>12</v>
       </c>
@@ -9010,7 +9062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -9030,7 +9082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -9050,7 +9102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
@@ -9076,14 +9128,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -9103,7 +9155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -9123,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -9143,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
@@ -9163,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -9183,7 +9235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -9203,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -9223,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -9243,7 +9295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -9263,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -9283,7 +9335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -9303,7 +9355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -9323,7 +9375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
@@ -9343,7 +9395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -9363,7 +9415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -9383,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -9403,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -9423,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -9443,7 +9495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -9463,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -9483,7 +9535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -9503,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -9523,7 +9575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -9543,7 +9595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -9563,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -9583,7 +9635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -9603,7 +9655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -9623,7 +9675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -9643,7 +9695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -9663,7 +9715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -9683,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -9703,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
@@ -9723,7 +9775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -9743,7 +9795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -9763,7 +9815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -9783,7 +9835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -9803,7 +9855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
@@ -9823,7 +9875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -9843,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
@@ -9863,7 +9915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -9883,7 +9935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -9903,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
@@ -9923,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>66</v>
       </c>
@@ -9943,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -9963,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -9983,7 +10035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>17</v>
       </c>
@@ -10003,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
@@ -10023,7 +10075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -10043,7 +10095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -10063,7 +10115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -10083,7 +10135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
@@ -10103,7 +10155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>15</v>
       </c>
@@ -10123,7 +10175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -10149,14 +10201,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -10176,7 +10228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -10196,7 +10248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -10216,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -10236,7 +10288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -10256,7 +10308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -10276,7 +10328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -10296,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -10316,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -10336,7 +10388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -10356,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -10376,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -10396,7 +10448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -10416,7 +10468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -10436,7 +10488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -10456,7 +10508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -10476,7 +10528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -10496,7 +10548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -10516,7 +10568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -10536,7 +10588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -10556,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -10576,7 +10628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -10596,7 +10648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -10616,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
@@ -10636,7 +10688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -10656,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -10676,7 +10728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -10696,7 +10748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -10716,7 +10768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -10736,7 +10788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -10756,7 +10808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
@@ -10776,7 +10828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -10796,7 +10848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -10816,7 +10868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -10836,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -10856,7 +10908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
@@ -10876,7 +10928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -10896,7 +10948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -10916,7 +10968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -10936,7 +10988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -10956,7 +11008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
@@ -10976,7 +11028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>17</v>
       </c>
@@ -10996,7 +11048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>17</v>
       </c>
@@ -11016,7 +11068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
@@ -11036,7 +11088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -11056,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -11076,7 +11128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -11096,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
@@ -11116,7 +11168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
@@ -11136,7 +11188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>14</v>
       </c>
@@ -11156,7 +11208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
@@ -11176,7 +11228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -11196,7 +11248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -11222,14 +11274,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -11249,7 +11301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -11269,7 +11321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -11289,7 +11341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -11309,7 +11361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -11329,7 +11381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -11349,7 +11401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -11369,7 +11421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -11389,7 +11441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>65</v>
       </c>
@@ -11409,7 +11461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -11429,7 +11481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -11449,7 +11501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -11469,7 +11521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -11489,7 +11541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -11509,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -11529,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -11549,7 +11601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -11569,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -11589,7 +11641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -11609,7 +11661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -11629,7 +11681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -11649,7 +11701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -11669,7 +11721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -11689,7 +11741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -11709,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -11729,7 +11781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -11749,7 +11801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -11769,7 +11821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -11789,7 +11841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -11809,7 +11861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -11829,7 +11881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -11849,7 +11901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -11869,7 +11921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -11889,7 +11941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -11909,7 +11961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -11929,7 +11981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -11949,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -11969,7 +12021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -11989,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>17</v>
       </c>
@@ -12009,7 +12061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
@@ -12029,7 +12081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -12049,7 +12101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -12069,7 +12121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
@@ -12089,7 +12141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
@@ -12109,7 +12161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
@@ -12129,7 +12181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -12149,7 +12201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
@@ -12169,7 +12221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -12189,7 +12241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -12209,7 +12261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
@@ -12229,7 +12281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
@@ -12249,7 +12301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -12269,7 +12321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -12295,14 +12347,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -12322,7 +12376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -12342,7 +12396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -12362,7 +12416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
@@ -12382,7 +12436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -12402,7 +12456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -12422,7 +12476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -12442,7 +12496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -12462,7 +12516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -12482,7 +12536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -12502,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -12522,7 +12576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -12542,7 +12596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -12562,7 +12616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -12582,7 +12636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -12596,13 +12650,13 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -12622,7 +12676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -12642,7 +12696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -12662,7 +12716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -12682,7 +12736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -12702,7 +12756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -12722,7 +12776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -12742,7 +12796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -12762,7 +12816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -12782,7 +12836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -12802,7 +12856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>64</v>
       </c>
@@ -12822,7 +12876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -12842,7 +12896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -12862,7 +12916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -12882,7 +12936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
@@ -12902,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -12922,7 +12976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -12942,7 +12996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -12962,7 +13016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
@@ -12982,7 +13036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -13002,7 +13056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -13022,7 +13076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -13042,7 +13096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -13062,7 +13116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>17</v>
       </c>
@@ -13082,7 +13136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -13102,7 +13156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
@@ -13122,7 +13176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -13142,7 +13196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -13162,7 +13216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -13182,7 +13236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
@@ -13202,7 +13256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
@@ -13228,14 +13282,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -13255,7 +13309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -13275,7 +13329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -13295,7 +13349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -13315,7 +13369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -13335,7 +13389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -13355,7 +13409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -13375,7 +13429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
@@ -13395,7 +13449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -13415,7 +13469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -13435,7 +13489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -13455,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -13475,7 +13529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -13495,7 +13549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -13515,7 +13569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -13535,7 +13589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -13555,7 +13609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -13575,7 +13629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -13595,7 +13649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -13615,7 +13669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -13635,7 +13689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -13655,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -13675,7 +13729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -13695,7 +13749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -13715,7 +13769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -13735,7 +13789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -13755,7 +13809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -13775,7 +13829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -13795,7 +13849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -13815,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
@@ -13835,7 +13889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -13855,7 +13909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -13875,7 +13929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -13895,7 +13949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -13915,7 +13969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -13935,7 +13989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
@@ -13955,7 +14009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -13975,7 +14029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>66</v>
       </c>
@@ -13995,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>17</v>
       </c>
@@ -14015,7 +14069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -14035,7 +14089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -14055,7 +14109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
@@ -14075,7 +14129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
@@ -14095,7 +14149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -14115,7 +14169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -14135,7 +14189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -14155,7 +14209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>65</v>
       </c>
@@ -14175,7 +14229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -14195,7 +14249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -14215,7 +14269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>15</v>
       </c>
@@ -14235,7 +14289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -14255,7 +14309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
@@ -14275,7 +14329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -14295,7 +14349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -14315,7 +14369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
@@ -14335,7 +14389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>12</v>
       </c>
@@ -14361,14 +14415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -14388,7 +14442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -14408,7 +14462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -14428,7 +14482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -14448,7 +14502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -14468,7 +14522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
@@ -14488,7 +14542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -14508,7 +14562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -14528,7 +14582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -14548,7 +14602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -14568,7 +14622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -14588,7 +14642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -14608,7 +14662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -14628,7 +14682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
@@ -14648,7 +14702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -14668,7 +14722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -14688,7 +14742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -14708,7 +14762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -14728,7 +14782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -14748,7 +14802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -14768,7 +14822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -14788,7 +14842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -14808,7 +14862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -14828,7 +14882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -14848,7 +14902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -14868,7 +14922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -14888,7 +14942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -14908,7 +14962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -14928,7 +14982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -14948,7 +15002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -14968,7 +15022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -14988,7 +15042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -15008,7 +15062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -15028,7 +15082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -15048,7 +15102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
@@ -15068,7 +15122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
@@ -15088,7 +15142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -15108,7 +15162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -15128,7 +15182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
@@ -15148,7 +15202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -15168,7 +15222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -15188,7 +15242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
@@ -15208,7 +15262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -15228,7 +15282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -15248,7 +15302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
@@ -15268,7 +15322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -15294,14 +15348,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -15321,7 +15375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -15341,7 +15395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -15361,7 +15415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -15381,7 +15435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -15401,7 +15455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -15421,7 +15475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -15441,7 +15495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -15461,7 +15515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -15481,7 +15535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -15501,7 +15555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -15521,7 +15575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -15541,7 +15595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -15561,7 +15615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -15581,7 +15635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -15601,7 +15655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -15621,7 +15675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -15641,7 +15695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -15661,7 +15715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -15681,7 +15735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -15701,7 +15755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -15721,7 +15775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
@@ -15741,7 +15795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -15761,7 +15815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -15781,7 +15835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -15801,7 +15855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -15821,7 +15875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -15841,7 +15895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -15861,7 +15915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
@@ -15881,7 +15935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -15901,7 +15955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -15921,7 +15975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
@@ -15941,7 +15995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
@@ -15961,7 +16015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -15981,7 +16035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -16001,7 +16055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
@@ -16021,7 +16075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -16041,7 +16095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -16061,7 +16115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -16081,7 +16135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -16101,7 +16155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
@@ -16121,7 +16175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
@@ -16141,7 +16195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -16161,7 +16215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>65</v>
       </c>
@@ -16181,7 +16235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -16201,7 +16255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>17</v>
       </c>
@@ -16221,7 +16275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -16241,7 +16295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -16261,7 +16315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -16281,7 +16335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -16301,7 +16355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
@@ -16321,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
@@ -16341,7 +16395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -16361,7 +16415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -16381,7 +16435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -16401,7 +16455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
@@ -16421,7 +16475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -16441,7 +16495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>20</v>
       </c>
@@ -16461,7 +16515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -16481,7 +16535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>20</v>
       </c>
@@ -16507,14 +16561,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -16534,7 +16588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -16554,7 +16608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -16574,7 +16628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -16594,7 +16648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -16614,7 +16668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -16634,7 +16688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -16654,7 +16708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -16674,7 +16728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -16694,7 +16748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -16714,7 +16768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -16734,7 +16788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -16754,7 +16808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -16774,7 +16828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -16794,7 +16848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -16814,7 +16868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -16834,7 +16888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -16854,7 +16908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -16874,7 +16928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -16894,7 +16948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -16914,7 +16968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -16934,7 +16988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -16954,7 +17008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -16974,7 +17028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -16994,7 +17048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -17014,7 +17068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
@@ -17034,7 +17088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -17054,7 +17108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -17074,7 +17128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -17094,7 +17148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -17114,7 +17168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -17134,7 +17188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -17154,7 +17208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -17174,7 +17228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -17194,7 +17248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -17214,7 +17268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
@@ -17234,7 +17288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -17254,7 +17308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
@@ -17274,7 +17328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -17294,7 +17348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -17314,7 +17368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -17334,7 +17388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -17354,7 +17408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
@@ -17374,7 +17428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
@@ -17394,7 +17448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
@@ -17414,7 +17468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
@@ -17434,7 +17488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -17454,7 +17508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -17474,7 +17528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -17494,7 +17548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>15</v>
       </c>
@@ -17514,7 +17568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
@@ -17534,7 +17588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
@@ -17554,7 +17608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
@@ -17574,7 +17628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
@@ -17594,7 +17648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
@@ -17620,14 +17674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -17647,7 +17701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -17667,7 +17721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -17687,7 +17741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -17707,7 +17761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -17727,7 +17781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -17747,7 +17801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -17767,7 +17821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -17787,7 +17841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -17807,7 +17861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -17827,7 +17881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -17847,7 +17901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -17867,7 +17921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -17887,7 +17941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -17907,7 +17961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -17927,7 +17981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -17947,7 +18001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -17967,7 +18021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -17987,7 +18041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -18007,7 +18061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -18027,7 +18081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -18047,7 +18101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -18067,7 +18121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -18087,7 +18141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
@@ -18107,7 +18161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -18127,7 +18181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -18147,7 +18201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -18167,7 +18221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -18187,7 +18241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -18207,7 +18261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
@@ -18227,7 +18281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
@@ -18247,7 +18301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -18267,7 +18321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -18287,7 +18341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -18307,7 +18361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -18327,7 +18381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -18347,7 +18401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -18367,7 +18421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -18387,7 +18441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -18407,7 +18461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -18427,7 +18481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -18447,7 +18501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -18467,7 +18521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -18487,7 +18541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
@@ -18507,7 +18561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -18527,7 +18581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -18547,7 +18601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -18567,7 +18621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
@@ -18587,7 +18641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>11</v>
       </c>
@@ -18607,7 +18661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -18627,7 +18681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
@@ -18647,7 +18701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -18667,7 +18721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -18687,7 +18741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -18707,7 +18761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
@@ -18727,7 +18781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
@@ -18747,7 +18801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>64</v>
       </c>
@@ -18767,7 +18821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>17</v>
       </c>
@@ -18793,14 +18847,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -18820,7 +18874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -18840,7 +18894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -18860,7 +18914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -18880,7 +18934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -18900,7 +18954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -18920,7 +18974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -18940,7 +18994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -18960,7 +19014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -18980,7 +19034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -19000,7 +19054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -19020,7 +19074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -19040,7 +19094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -19060,7 +19114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -19080,7 +19134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -19100,7 +19154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -19120,7 +19174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -19140,7 +19194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -19160,7 +19214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -19180,7 +19234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -19200,7 +19254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -19220,7 +19274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
@@ -19240,7 +19294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -19260,7 +19314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -19280,7 +19334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -19300,7 +19354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -19320,7 +19374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
@@ -19340,7 +19394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -19360,7 +19414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -19380,7 +19434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -19400,7 +19454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -19420,7 +19474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -19440,7 +19494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -19460,7 +19514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -19480,7 +19534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
@@ -19500,7 +19554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -19520,7 +19574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
@@ -19540,7 +19594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -19560,7 +19614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -19580,7 +19634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -19600,7 +19654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
@@ -19620,7 +19674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -19640,7 +19694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -19660,7 +19714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
@@ -19680,7 +19734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
@@ -19700,7 +19754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>22</v>
       </c>
@@ -19720,7 +19774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -19740,7 +19794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>18</v>
       </c>
@@ -19760,7 +19814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
@@ -19780,7 +19834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -19800,7 +19854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
@@ -19820,7 +19874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
@@ -19840,7 +19894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -19866,14 +19920,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -19893,7 +19947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -19913,7 +19967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -19933,7 +19987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -19953,7 +20007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
@@ -19973,7 +20027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -19993,7 +20047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -20013,7 +20067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
@@ -20033,7 +20087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -20053,7 +20107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -20073,7 +20127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -20093,7 +20147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -20113,7 +20167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -20133,7 +20187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -20153,7 +20207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -20173,7 +20227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -20193,7 +20247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -20213,7 +20267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -20233,7 +20287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -20253,7 +20307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -20273,7 +20327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -20293,7 +20347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -20313,7 +20367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -20333,7 +20387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -20353,7 +20407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -20373,7 +20427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -20393,7 +20447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -20413,7 +20467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -20433,7 +20487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -20453,7 +20507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -20473,7 +20527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -20493,7 +20547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -20513,7 +20567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -20533,7 +20587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -20553,7 +20607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -20573,7 +20627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -20593,7 +20647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
@@ -20613,7 +20667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -20633,7 +20687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -20653,7 +20707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
@@ -20673,7 +20727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -20693,7 +20747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -20713,7 +20767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -20733,7 +20787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>15</v>
       </c>
@@ -20753,7 +20807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
@@ -20773,7 +20827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -20793,7 +20847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -20813,7 +20867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
@@ -20833,7 +20887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -20853,7 +20907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
@@ -20873,7 +20927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
@@ -20893,7 +20947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -20913,7 +20967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -20933,7 +20987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>20</v>
       </c>
@@ -20959,14 +21013,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -20986,7 +21040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -21006,7 +21060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -21026,7 +21080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -21046,7 +21100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -21066,7 +21120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -21086,7 +21140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -21106,7 +21160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -21126,7 +21180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -21146,7 +21200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -21166,7 +21220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -21186,7 +21240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -21206,7 +21260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -21226,7 +21280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -21246,7 +21300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -21266,7 +21320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
@@ -21286,7 +21340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -21306,7 +21360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -21326,7 +21380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -21346,7 +21400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -21366,7 +21420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -21386,7 +21440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -21406,7 +21460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -21426,7 +21480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -21446,7 +21500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -21466,7 +21520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -21486,7 +21540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -21506,7 +21560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -21526,7 +21580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -21546,7 +21600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -21566,7 +21620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
@@ -21586,7 +21640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -21606,7 +21660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -21626,7 +21680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -21646,7 +21700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -21666,7 +21720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -21686,7 +21740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -21706,7 +21760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -21726,7 +21780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -21746,7 +21800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
@@ -21766,7 +21820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -21786,7 +21840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -21806,7 +21860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -21826,7 +21880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>65</v>
       </c>
@@ -21846,7 +21900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -21866,7 +21920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -21886,7 +21940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
@@ -21906,7 +21960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
@@ -21926,7 +21980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -21946,7 +22000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -21966,7 +22020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
@@ -21986,7 +22040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>19</v>
       </c>
@@ -22006,7 +22060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>15</v>
       </c>
@@ -22032,14 +22086,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -22059,7 +22113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -22079,7 +22133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -22099,7 +22153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -22119,7 +22173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -22139,7 +22193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -22159,7 +22213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -22179,7 +22233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -22199,7 +22253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -22219,7 +22273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -22239,7 +22293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -22259,7 +22313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -22279,7 +22333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -22299,7 +22353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -22319,7 +22373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -22339,7 +22393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -22359,7 +22413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -22379,7 +22433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -22399,7 +22453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -22419,7 +22473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -22439,7 +22493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -22459,7 +22513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -22479,7 +22533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -22499,7 +22553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -22519,7 +22573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -22539,7 +22593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -22559,7 +22613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -22579,7 +22633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -22599,7 +22653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -22619,7 +22673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -22639,7 +22693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -22659,7 +22713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -22679,7 +22733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -22699,7 +22753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -22719,7 +22773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
@@ -22739,7 +22793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
@@ -22759,7 +22813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -22779,7 +22833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -22799,7 +22853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -22819,7 +22873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>65</v>
       </c>
@@ -22839,7 +22893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
@@ -22859,7 +22913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
@@ -22879,7 +22933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -22899,7 +22953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -22919,7 +22973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
@@ -22939,7 +22993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
@@ -22959,7 +23013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -22979,7 +23033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
@@ -22999,7 +23053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
@@ -23019,7 +23073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
@@ -23039,7 +23093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
@@ -23059,7 +23113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -23079,7 +23133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>66</v>
       </c>
@@ -23099,7 +23153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>18</v>
       </c>
